--- a/ig/all-profiles.xlsx
+++ b/ig/all-profiles.xlsx
@@ -3647,7 +3647,7 @@
     <t>Workflow Extension</t>
   </si>
   <si>
-    <t>2023-01-23T16:13:19+00:00</t>
+    <t>2023-01-27T17:12:17+00:00</t>
   </si>
   <si>
     <t>element:Task</t>

--- a/ig/all-profiles.xlsx
+++ b/ig/all-profiles.xlsx
@@ -3647,7 +3647,7 @@
     <t>Workflow Extension</t>
   </si>
   <si>
-    <t>2023-01-27T17:12:17+00:00</t>
+    <t>2023-01-30T21:30:05+00:00</t>
   </si>
   <si>
     <t>element:Task</t>

--- a/ig/all-profiles.xlsx
+++ b/ig/all-profiles.xlsx
@@ -3647,7 +3647,7 @@
     <t>Workflow Extension</t>
   </si>
   <si>
-    <t>2023-01-30T21:30:05+00:00</t>
+    <t>2023-02-09T16:19:35+00:00</t>
   </si>
   <si>
     <t>element:Task</t>

--- a/ig/all-profiles.xlsx
+++ b/ig/all-profiles.xlsx
@@ -3647,7 +3647,7 @@
     <t>Workflow Extension</t>
   </si>
   <si>
-    <t>2023-02-09T16:19:35+00:00</t>
+    <t>2023-02-14T19:15:12+00:00</t>
   </si>
   <si>
     <t>element:Task</t>

--- a/ig/all-profiles.xlsx
+++ b/ig/all-profiles.xlsx
@@ -3678,7 +3678,7 @@
     <t>Family Relation</t>
   </si>
   <si>
-    <t>2023-02-20T18:51:53+00:00</t>
+    <t>2023-02-20T18:59:33+00:00</t>
   </si>
   <si>
     <t>Patient from the same family.</t>

--- a/ig/all-profiles.xlsx
+++ b/ig/all-profiles.xlsx
@@ -3678,7 +3678,7 @@
     <t>Family Relation</t>
   </si>
   <si>
-    <t>2023-02-20T18:59:33+00:00</t>
+    <t>2023-02-20T19:32:51+00:00</t>
   </si>
   <si>
     <t>Patient from the same family.</t>

--- a/ig/all-profiles.xlsx
+++ b/ig/all-profiles.xlsx
@@ -3678,7 +3678,7 @@
     <t>Family Relation</t>
   </si>
   <si>
-    <t>2023-02-20T19:32:51+00:00</t>
+    <t>2023-02-21T11:59:56+00:00</t>
   </si>
   <si>
     <t>Patient from the same family.</t>

--- a/ig/all-profiles.xlsx
+++ b/ig/all-profiles.xlsx
@@ -3678,7 +3678,7 @@
     <t>Family Relation</t>
   </si>
   <si>
-    <t>2023-02-21T11:59:56+00:00</t>
+    <t>2023-02-21T12:43:59+00:00</t>
   </si>
   <si>
     <t>Patient from the same family.</t>

--- a/ig/all-profiles.xlsx
+++ b/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16466" uniqueCount="1394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17051" uniqueCount="1417">
   <si>
     <t>Property</t>
   </si>
@@ -3678,7 +3678,7 @@
     <t>Family Relation</t>
   </si>
   <si>
-    <t>2023-02-21T12:43:59+00:00</t>
+    <t>2023-02-28T17:04:12+00:00</t>
   </si>
   <si>
     <t>Patient from the same family.</t>
@@ -4105,6 +4105,27 @@
     <t>Extension.extension:baitDefinition.value[x]:valueString</t>
   </si>
   <si>
+    <t>Extension.extension:protocol</t>
+  </si>
+  <si>
+    <t>protocol</t>
+  </si>
+  <si>
+    <t>Extension.extension:protocol.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:protocol.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:protocol.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:protocol.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension:protocol.value[x]:valueString</t>
+  </si>
+  <si>
     <t>status-history</t>
   </si>
   <si>
@@ -4282,6 +4303,54 @@
   </si>
   <si>
     <t>http://fhir.cqgc.ferlab.bio/ValueSet/genome-build</t>
+  </si>
+  <si>
+    <t>Extension.extension:genomeBuildVersion</t>
+  </si>
+  <si>
+    <t>genomeBuildVersion</t>
+  </si>
+  <si>
+    <t>Genome Build Version</t>
+  </si>
+  <si>
+    <t>Extension.extension:genomeBuildVersion.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:genomeBuildVersion.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:genomeBuildVersion.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:genomeBuildVersion.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension:genomeBuildVersion.value[x]:valueString</t>
+  </si>
+  <si>
+    <t>Extension.extension:gencodeVersion</t>
+  </si>
+  <si>
+    <t>gencodeVersion</t>
+  </si>
+  <si>
+    <t>Gencode Version</t>
+  </si>
+  <si>
+    <t>Extension.extension:gencodeVersion.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:gencodeVersion.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:gencodeVersion.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:gencodeVersion.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension:gencodeVersion.value[x]:valueString</t>
   </si>
   <si>
     <t>http://fhir.cqgc.ferlab.bio/StructureDefinition/family-member</t>
@@ -6376,7 +6445,7 @@
         <v>2</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>1313</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="249">
@@ -6384,7 +6453,7 @@
         <v>4</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>1314</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="250">
@@ -6400,7 +6469,7 @@
         <v>8</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>1313</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="252">
@@ -6408,7 +6477,7 @@
         <v>9</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>1315</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="253">
@@ -6454,7 +6523,7 @@
         <v>20</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>1316</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="259">
@@ -6522,7 +6591,7 @@
         <v>1146</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>1317</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="268">
@@ -6546,7 +6615,7 @@
         <v>4</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>1318</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="271">
@@ -6570,7 +6639,7 @@
         <v>9</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>1319</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="274">
@@ -6616,7 +6685,7 @@
         <v>20</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>1320</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="280">
@@ -6684,7 +6753,7 @@
         <v>1146</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>1321</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="289">
@@ -6708,7 +6777,7 @@
         <v>4</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>1325</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="292">
@@ -6724,7 +6793,7 @@
         <v>8</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>1326</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="294">
@@ -6754,7 +6823,7 @@
         <v>14</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>1327</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="298">
@@ -6778,7 +6847,7 @@
         <v>20</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>1328</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="301">
@@ -6846,7 +6915,7 @@
         <v>1146</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>1329</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="310">
@@ -6854,7 +6923,7 @@
         <v>1146</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>1317</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="311">
@@ -6862,7 +6931,7 @@
         <v>1146</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>1330</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="312">
@@ -6870,7 +6939,7 @@
         <v>1146</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>1331</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="313">
@@ -6894,7 +6963,7 @@
         <v>4</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>1334</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="316">
@@ -6910,7 +6979,7 @@
         <v>8</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>1335</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="318">
@@ -6918,7 +6987,7 @@
         <v>9</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>1335</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="319">
@@ -6940,7 +7009,7 @@
         <v>14</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>1336</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="322">
@@ -6964,7 +7033,7 @@
         <v>20</v>
       </c>
       <c r="B324" t="s" s="2">
-        <v>1337</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="325">
@@ -7032,7 +7101,7 @@
         <v>1146</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>1338</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="334">
@@ -7040,7 +7109,7 @@
         <v>1146</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>1317</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="335">
@@ -7064,7 +7133,7 @@
         <v>4</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>1342</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="338">
@@ -7134,7 +7203,7 @@
         <v>20</v>
       </c>
       <c r="B346" t="s" s="2">
-        <v>1343</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="347">
@@ -7202,7 +7271,7 @@
         <v>1146</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>1317</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="356">
@@ -7226,7 +7295,7 @@
         <v>4</v>
       </c>
       <c r="B358" t="s" s="2">
-        <v>1345</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="359">
@@ -7250,7 +7319,7 @@
         <v>9</v>
       </c>
       <c r="B361" t="s" s="2">
-        <v>1346</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="362">
@@ -7386,7 +7455,7 @@
         <v>4</v>
       </c>
       <c r="B379" t="s" s="2">
-        <v>1372</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="380">
@@ -7456,7 +7525,7 @@
         <v>20</v>
       </c>
       <c r="B388" t="s" s="2">
-        <v>1373</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="389">
@@ -7524,7 +7593,7 @@
         <v>1146</v>
       </c>
       <c r="B397" t="s" s="2">
-        <v>1317</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="398">
@@ -7540,7 +7609,7 @@
         <v>2</v>
       </c>
       <c r="B399" t="s" s="2">
-        <v>1389</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="400">
@@ -7548,7 +7617,7 @@
         <v>4</v>
       </c>
       <c r="B400" t="s" s="2">
-        <v>1390</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="401">
@@ -7564,7 +7633,7 @@
         <v>8</v>
       </c>
       <c r="B402" t="s" s="2">
-        <v>1389</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="403">
@@ -7572,7 +7641,7 @@
         <v>9</v>
       </c>
       <c r="B403" t="s" s="2">
-        <v>1391</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="404">
@@ -7618,7 +7687,7 @@
         <v>20</v>
       </c>
       <c r="B409" t="s" s="2">
-        <v>1392</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="410">
@@ -7696,7 +7765,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK478"/>
+  <dimension ref="A1:AK496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -50455,24 +50524,26 @@
         <v>942</v>
       </c>
       <c r="B409" t="s" s="2">
-        <v>1152</v>
+        <v>1313</v>
       </c>
       <c r="C409" t="s" s="2">
-        <v>1152</v>
-      </c>
-      <c r="D409" s="2"/>
+        <v>1150</v>
+      </c>
+      <c r="D409" t="s" s="2">
+        <v>1314</v>
+      </c>
       <c r="E409" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F409" s="2"/>
       <c r="G409" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H409" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I409" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="J409" t="s" s="2">
         <v>74</v>
@@ -50481,24 +50552,22 @@
         <v>74</v>
       </c>
       <c r="L409" t="s" s="2">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="M409" t="s" s="2">
-        <v>1153</v>
+        <v>1314</v>
       </c>
       <c r="N409" t="s" s="2">
-        <v>1154</v>
-      </c>
-      <c r="O409" t="s" s="2">
-        <v>1155</v>
-      </c>
+        <v>1314</v>
+      </c>
+      <c r="O409" s="2"/>
       <c r="P409" s="2"/>
       <c r="Q409" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R409" s="2"/>
       <c r="S409" t="s" s="2">
-        <v>1205</v>
+        <v>74</v>
       </c>
       <c r="T409" t="s" s="2">
         <v>74</v>
@@ -50540,19 +50609,19 @@
         <v>74</v>
       </c>
       <c r="AG409" t="s" s="2">
-        <v>1152</v>
+        <v>427</v>
       </c>
       <c r="AH409" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AI409" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ409" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK409" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
     </row>
     <row r="410">
@@ -50560,10 +50629,10 @@
         <v>942</v>
       </c>
       <c r="B410" t="s" s="2">
-        <v>1156</v>
+        <v>1315</v>
       </c>
       <c r="C410" t="s" s="2">
-        <v>1156</v>
+        <v>1180</v>
       </c>
       <c r="D410" s="2"/>
       <c r="E410" t="s" s="2">
@@ -50574,7 +50643,7 @@
         <v>72</v>
       </c>
       <c r="H410" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I410" t="s" s="2">
         <v>74</v>
@@ -50586,13 +50655,13 @@
         <v>74</v>
       </c>
       <c r="L410" t="s" s="2">
-        <v>1106</v>
+        <v>329</v>
       </c>
       <c r="M410" t="s" s="2">
-        <v>1158</v>
+        <v>421</v>
       </c>
       <c r="N410" t="s" s="2">
-        <v>1159</v>
+        <v>422</v>
       </c>
       <c r="O410" s="2"/>
       <c r="P410" s="2"/>
@@ -50643,7 +50712,7 @@
         <v>74</v>
       </c>
       <c r="AG410" t="s" s="2">
-        <v>1156</v>
+        <v>423</v>
       </c>
       <c r="AH410" t="s" s="2">
         <v>72</v>
@@ -50655,32 +50724,32 @@
         <v>74</v>
       </c>
       <c r="AK410" t="s" s="2">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="s" s="2">
-        <v>1313</v>
+        <v>942</v>
       </c>
       <c r="B411" t="s" s="2">
-        <v>123</v>
+        <v>1316</v>
       </c>
       <c r="C411" t="s" s="2">
-        <v>123</v>
+        <v>1182</v>
       </c>
       <c r="D411" s="2"/>
       <c r="E411" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="F411" s="2"/>
       <c r="G411" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H411" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I411" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J411" t="s" s="2">
         <v>74</v>
@@ -50689,15 +50758,17 @@
         <v>74</v>
       </c>
       <c r="L411" t="s" s="2">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="M411" t="s" s="2">
-        <v>1315</v>
+        <v>425</v>
       </c>
       <c r="N411" t="s" s="2">
-        <v>1316</v>
-      </c>
-      <c r="O411" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="O411" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P411" s="2"/>
       <c r="Q411" t="s" s="2">
         <v>74</v>
@@ -50734,19 +50805,19 @@
         <v>74</v>
       </c>
       <c r="AC411" t="s" s="2">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="AD411" t="s" s="2">
-        <v>74</v>
+        <v>1151</v>
       </c>
       <c r="AE411" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AF411" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="AG411" t="s" s="2">
-        <v>123</v>
+        <v>427</v>
       </c>
       <c r="AH411" t="s" s="2">
         <v>72</v>
@@ -50755,7 +50826,7 @@
         <v>73</v>
       </c>
       <c r="AJ411" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AK411" t="s" s="2">
         <v>128</v>
@@ -50763,13 +50834,13 @@
     </row>
     <row r="412">
       <c r="A412" t="s" s="2">
-        <v>1313</v>
+        <v>942</v>
       </c>
       <c r="B412" t="s" s="2">
-        <v>1149</v>
+        <v>1317</v>
       </c>
       <c r="C412" t="s" s="2">
-        <v>1149</v>
+        <v>1184</v>
       </c>
       <c r="D412" s="2"/>
       <c r="E412" t="s" s="2">
@@ -50792,22 +50863,24 @@
         <v>74</v>
       </c>
       <c r="L412" t="s" s="2">
-        <v>329</v>
+        <v>93</v>
       </c>
       <c r="M412" t="s" s="2">
-        <v>421</v>
+        <v>1153</v>
       </c>
       <c r="N412" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="O412" s="2"/>
+        <v>1154</v>
+      </c>
+      <c r="O412" t="s" s="2">
+        <v>1155</v>
+      </c>
       <c r="P412" s="2"/>
       <c r="Q412" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R412" s="2"/>
       <c r="S412" t="s" s="2">
-        <v>74</v>
+        <v>1314</v>
       </c>
       <c r="T412" t="s" s="2">
         <v>74</v>
@@ -50849,10 +50922,10 @@
         <v>74</v>
       </c>
       <c r="AG412" t="s" s="2">
-        <v>423</v>
+        <v>1152</v>
       </c>
       <c r="AH412" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AI412" t="s" s="2">
         <v>79</v>
@@ -50866,13 +50939,13 @@
     </row>
     <row r="413">
       <c r="A413" t="s" s="2">
-        <v>1313</v>
+        <v>942</v>
       </c>
       <c r="B413" t="s" s="2">
-        <v>1150</v>
+        <v>1318</v>
       </c>
       <c r="C413" t="s" s="2">
-        <v>1150</v>
+        <v>1186</v>
       </c>
       <c r="D413" s="2"/>
       <c r="E413" t="s" s="2">
@@ -50883,7 +50956,7 @@
         <v>72</v>
       </c>
       <c r="H413" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I413" t="s" s="2">
         <v>74</v>
@@ -50895,13 +50968,13 @@
         <v>74</v>
       </c>
       <c r="L413" t="s" s="2">
-        <v>122</v>
+        <v>329</v>
       </c>
       <c r="M413" t="s" s="2">
-        <v>123</v>
+        <v>1158</v>
       </c>
       <c r="N413" t="s" s="2">
-        <v>124</v>
+        <v>1159</v>
       </c>
       <c r="O413" s="2"/>
       <c r="P413" s="2"/>
@@ -50940,50 +51013,50 @@
         <v>74</v>
       </c>
       <c r="AC413" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AD413" t="s" s="2">
-        <v>1151</v>
-      </c>
+        <v>1216</v>
+      </c>
+      <c r="AD413" s="2"/>
       <c r="AE413" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AF413" t="s" s="2">
-        <v>126</v>
+        <v>1217</v>
       </c>
       <c r="AG413" t="s" s="2">
-        <v>427</v>
+        <v>1156</v>
       </c>
       <c r="AH413" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI413" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ413" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK413" t="s" s="2">
-        <v>128</v>
+        <v>91</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="s" s="2">
-        <v>1313</v>
+        <v>942</v>
       </c>
       <c r="B414" t="s" s="2">
-        <v>1152</v>
+        <v>1319</v>
       </c>
       <c r="C414" t="s" s="2">
-        <v>1152</v>
-      </c>
-      <c r="D414" s="2"/>
+        <v>1186</v>
+      </c>
+      <c r="D414" t="s" s="2">
+        <v>1219</v>
+      </c>
       <c r="E414" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F414" s="2"/>
       <c r="G414" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H414" t="s" s="2">
         <v>79</v>
@@ -50998,24 +51071,22 @@
         <v>74</v>
       </c>
       <c r="L414" t="s" s="2">
-        <v>93</v>
+        <v>329</v>
       </c>
       <c r="M414" t="s" s="2">
-        <v>1153</v>
+        <v>1158</v>
       </c>
       <c r="N414" t="s" s="2">
-        <v>1154</v>
-      </c>
-      <c r="O414" t="s" s="2">
-        <v>1155</v>
-      </c>
+        <v>1159</v>
+      </c>
+      <c r="O414" s="2"/>
       <c r="P414" s="2"/>
       <c r="Q414" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R414" s="2"/>
       <c r="S414" t="s" s="2">
-        <v>1314</v>
+        <v>74</v>
       </c>
       <c r="T414" t="s" s="2">
         <v>74</v>
@@ -51057,10 +51128,10 @@
         <v>74</v>
       </c>
       <c r="AG414" t="s" s="2">
-        <v>1152</v>
+        <v>1156</v>
       </c>
       <c r="AH414" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AI414" t="s" s="2">
         <v>79</v>
@@ -51069,18 +51140,18 @@
         <v>74</v>
       </c>
       <c r="AK414" t="s" s="2">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="s" s="2">
-        <v>1313</v>
+        <v>942</v>
       </c>
       <c r="B415" t="s" s="2">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="C415" t="s" s="2">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="D415" s="2"/>
       <c r="E415" t="s" s="2">
@@ -51103,22 +51174,24 @@
         <v>74</v>
       </c>
       <c r="L415" t="s" s="2">
-        <v>326</v>
+        <v>93</v>
       </c>
       <c r="M415" t="s" s="2">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="N415" t="s" s="2">
-        <v>1159</v>
-      </c>
-      <c r="O415" s="2"/>
+        <v>1154</v>
+      </c>
+      <c r="O415" t="s" s="2">
+        <v>1155</v>
+      </c>
       <c r="P415" s="2"/>
       <c r="Q415" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R415" s="2"/>
       <c r="S415" t="s" s="2">
-        <v>74</v>
+        <v>1205</v>
       </c>
       <c r="T415" t="s" s="2">
         <v>74</v>
@@ -51160,10 +51233,10 @@
         <v>74</v>
       </c>
       <c r="AG415" t="s" s="2">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="AH415" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AI415" t="s" s="2">
         <v>79</v>
@@ -51172,18 +51245,18 @@
         <v>74</v>
       </c>
       <c r="AK415" t="s" s="2">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="s" s="2">
-        <v>625</v>
+        <v>942</v>
       </c>
       <c r="B416" t="s" s="2">
-        <v>123</v>
+        <v>1156</v>
       </c>
       <c r="C416" t="s" s="2">
-        <v>123</v>
+        <v>1156</v>
       </c>
       <c r="D416" s="2"/>
       <c r="E416" t="s" s="2">
@@ -51194,10 +51267,10 @@
         <v>72</v>
       </c>
       <c r="H416" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I416" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J416" t="s" s="2">
         <v>74</v>
@@ -51206,13 +51279,13 @@
         <v>74</v>
       </c>
       <c r="L416" t="s" s="2">
-        <v>75</v>
+        <v>1106</v>
       </c>
       <c r="M416" t="s" s="2">
-        <v>1322</v>
+        <v>1158</v>
       </c>
       <c r="N416" t="s" s="2">
-        <v>1320</v>
+        <v>1159</v>
       </c>
       <c r="O416" s="2"/>
       <c r="P416" s="2"/>
@@ -51263,30 +51336,30 @@
         <v>74</v>
       </c>
       <c r="AG416" t="s" s="2">
-        <v>123</v>
+        <v>1156</v>
       </c>
       <c r="AH416" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI416" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ416" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AK416" t="s" s="2">
-        <v>128</v>
+        <v>91</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="s" s="2">
-        <v>625</v>
+        <v>1320</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>1149</v>
+        <v>123</v>
       </c>
       <c r="C417" t="s" s="2">
-        <v>1149</v>
+        <v>123</v>
       </c>
       <c r="D417" s="2"/>
       <c r="E417" t="s" s="2">
@@ -51294,13 +51367,13 @@
       </c>
       <c r="F417" s="2"/>
       <c r="G417" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H417" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I417" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="J417" t="s" s="2">
         <v>74</v>
@@ -51309,13 +51382,13 @@
         <v>74</v>
       </c>
       <c r="L417" t="s" s="2">
-        <v>329</v>
+        <v>75</v>
       </c>
       <c r="M417" t="s" s="2">
-        <v>421</v>
+        <v>1322</v>
       </c>
       <c r="N417" t="s" s="2">
-        <v>422</v>
+        <v>1323</v>
       </c>
       <c r="O417" s="2"/>
       <c r="P417" s="2"/>
@@ -51366,30 +51439,30 @@
         <v>74</v>
       </c>
       <c r="AG417" t="s" s="2">
-        <v>423</v>
+        <v>123</v>
       </c>
       <c r="AH417" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI417" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ417" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="AK417" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="s" s="2">
-        <v>625</v>
+        <v>1320</v>
       </c>
       <c r="B418" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C418" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D418" s="2"/>
       <c r="E418" t="s" s="2">
@@ -51400,7 +51473,7 @@
         <v>72</v>
       </c>
       <c r="H418" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I418" t="s" s="2">
         <v>74</v>
@@ -51412,13 +51485,13 @@
         <v>74</v>
       </c>
       <c r="L418" t="s" s="2">
-        <v>122</v>
+        <v>329</v>
       </c>
       <c r="M418" t="s" s="2">
-        <v>123</v>
+        <v>421</v>
       </c>
       <c r="N418" t="s" s="2">
-        <v>124</v>
+        <v>422</v>
       </c>
       <c r="O418" s="2"/>
       <c r="P418" s="2"/>
@@ -51457,42 +51530,42 @@
         <v>74</v>
       </c>
       <c r="AC418" t="s" s="2">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="AD418" t="s" s="2">
-        <v>1151</v>
+        <v>74</v>
       </c>
       <c r="AE418" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AF418" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="AG418" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="AH418" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI418" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ418" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK418" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="s" s="2">
-        <v>625</v>
+        <v>1320</v>
       </c>
       <c r="B419" t="s" s="2">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C419" t="s" s="2">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="D419" s="2"/>
       <c r="E419" t="s" s="2">
@@ -51500,10 +51573,10 @@
       </c>
       <c r="F419" s="2"/>
       <c r="G419" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H419" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I419" t="s" s="2">
         <v>74</v>
@@ -51515,24 +51588,22 @@
         <v>74</v>
       </c>
       <c r="L419" t="s" s="2">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="M419" t="s" s="2">
-        <v>1153</v>
+        <v>123</v>
       </c>
       <c r="N419" t="s" s="2">
-        <v>1154</v>
-      </c>
-      <c r="O419" t="s" s="2">
-        <v>1155</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="O419" s="2"/>
       <c r="P419" s="2"/>
       <c r="Q419" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R419" s="2"/>
       <c r="S419" t="s" s="2">
-        <v>1318</v>
+        <v>74</v>
       </c>
       <c r="T419" t="s" s="2">
         <v>74</v>
@@ -51562,42 +51633,42 @@
         <v>74</v>
       </c>
       <c r="AC419" t="s" s="2">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="AD419" t="s" s="2">
-        <v>74</v>
+        <v>1151</v>
       </c>
       <c r="AE419" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AF419" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="AG419" t="s" s="2">
-        <v>1152</v>
+        <v>427</v>
       </c>
       <c r="AH419" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AI419" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ419" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK419" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="s" s="2">
-        <v>625</v>
+        <v>1320</v>
       </c>
       <c r="B420" t="s" s="2">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="C420" t="s" s="2">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="D420" s="2"/>
       <c r="E420" t="s" s="2">
@@ -51605,7 +51676,7 @@
       </c>
       <c r="F420" s="2"/>
       <c r="G420" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H420" t="s" s="2">
         <v>79</v>
@@ -51620,22 +51691,24 @@
         <v>74</v>
       </c>
       <c r="L420" t="s" s="2">
-        <v>1166</v>
+        <v>93</v>
       </c>
       <c r="M420" t="s" s="2">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="N420" t="s" s="2">
-        <v>1159</v>
-      </c>
-      <c r="O420" s="2"/>
+        <v>1154</v>
+      </c>
+      <c r="O420" t="s" s="2">
+        <v>1155</v>
+      </c>
       <c r="P420" s="2"/>
       <c r="Q420" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R420" s="2"/>
       <c r="S420" t="s" s="2">
-        <v>74</v>
+        <v>1321</v>
       </c>
       <c r="T420" t="s" s="2">
         <v>74</v>
@@ -51653,13 +51726,13 @@
         <v>74</v>
       </c>
       <c r="Y420" t="s" s="2">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="Z420" t="s" s="2">
-        <v>1323</v>
+        <v>74</v>
       </c>
       <c r="AA420" t="s" s="2">
-        <v>1324</v>
+        <v>74</v>
       </c>
       <c r="AB420" t="s" s="2">
         <v>74</v>
@@ -51677,10 +51750,10 @@
         <v>74</v>
       </c>
       <c r="AG420" t="s" s="2">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="AH420" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AI420" t="s" s="2">
         <v>79</v>
@@ -51689,18 +51762,18 @@
         <v>74</v>
       </c>
       <c r="AK420" t="s" s="2">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="s" s="2">
-        <v>1130</v>
+        <v>1320</v>
       </c>
       <c r="B421" t="s" s="2">
-        <v>123</v>
+        <v>1156</v>
       </c>
       <c r="C421" t="s" s="2">
-        <v>123</v>
+        <v>1156</v>
       </c>
       <c r="D421" s="2"/>
       <c r="E421" t="s" s="2">
@@ -51723,17 +51796,15 @@
         <v>74</v>
       </c>
       <c r="L421" t="s" s="2">
-        <v>75</v>
+        <v>326</v>
       </c>
       <c r="M421" t="s" s="2">
-        <v>372</v>
+        <v>1158</v>
       </c>
       <c r="N421" t="s" s="2">
-        <v>1328</v>
-      </c>
-      <c r="O421" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>1159</v>
+      </c>
+      <c r="O421" s="2"/>
       <c r="P421" s="2"/>
       <c r="Q421" t="s" s="2">
         <v>74</v>
@@ -51782,30 +51853,30 @@
         <v>74</v>
       </c>
       <c r="AG421" t="s" s="2">
-        <v>123</v>
+        <v>1156</v>
       </c>
       <c r="AH421" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI421" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ421" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AK421" t="s" s="2">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="s" s="2">
-        <v>1130</v>
+        <v>625</v>
       </c>
       <c r="B422" t="s" s="2">
-        <v>1149</v>
+        <v>123</v>
       </c>
       <c r="C422" t="s" s="2">
-        <v>1149</v>
+        <v>123</v>
       </c>
       <c r="D422" s="2"/>
       <c r="E422" t="s" s="2">
@@ -51819,7 +51890,7 @@
         <v>79</v>
       </c>
       <c r="I422" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="J422" t="s" s="2">
         <v>74</v>
@@ -51828,13 +51899,13 @@
         <v>74</v>
       </c>
       <c r="L422" t="s" s="2">
-        <v>329</v>
+        <v>75</v>
       </c>
       <c r="M422" t="s" s="2">
-        <v>421</v>
+        <v>1329</v>
       </c>
       <c r="N422" t="s" s="2">
-        <v>422</v>
+        <v>1327</v>
       </c>
       <c r="O422" s="2"/>
       <c r="P422" s="2"/>
@@ -51885,30 +51956,30 @@
         <v>74</v>
       </c>
       <c r="AG422" t="s" s="2">
-        <v>423</v>
+        <v>123</v>
       </c>
       <c r="AH422" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI422" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ422" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="AK422" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="s" s="2">
-        <v>1130</v>
+        <v>625</v>
       </c>
       <c r="B423" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C423" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D423" s="2"/>
       <c r="E423" t="s" s="2">
@@ -51919,7 +51990,7 @@
         <v>72</v>
       </c>
       <c r="H423" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I423" t="s" s="2">
         <v>74</v>
@@ -51931,13 +52002,13 @@
         <v>74</v>
       </c>
       <c r="L423" t="s" s="2">
-        <v>122</v>
+        <v>329</v>
       </c>
       <c r="M423" t="s" s="2">
-        <v>123</v>
+        <v>421</v>
       </c>
       <c r="N423" t="s" s="2">
-        <v>124</v>
+        <v>422</v>
       </c>
       <c r="O423" s="2"/>
       <c r="P423" s="2"/>
@@ -51976,42 +52047,42 @@
         <v>74</v>
       </c>
       <c r="AC423" t="s" s="2">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="AD423" t="s" s="2">
-        <v>1151</v>
+        <v>74</v>
       </c>
       <c r="AE423" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AF423" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="AG423" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="AH423" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI423" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ423" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK423" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="s" s="2">
-        <v>1130</v>
+        <v>625</v>
       </c>
       <c r="B424" t="s" s="2">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C424" t="s" s="2">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="D424" s="2"/>
       <c r="E424" t="s" s="2">
@@ -52019,10 +52090,10 @@
       </c>
       <c r="F424" s="2"/>
       <c r="G424" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H424" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I424" t="s" s="2">
         <v>74</v>
@@ -52034,24 +52105,22 @@
         <v>74</v>
       </c>
       <c r="L424" t="s" s="2">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="M424" t="s" s="2">
-        <v>1153</v>
+        <v>123</v>
       </c>
       <c r="N424" t="s" s="2">
-        <v>1154</v>
-      </c>
-      <c r="O424" t="s" s="2">
-        <v>1155</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="O424" s="2"/>
       <c r="P424" s="2"/>
       <c r="Q424" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R424" s="2"/>
       <c r="S424" t="s" s="2">
-        <v>1332</v>
+        <v>74</v>
       </c>
       <c r="T424" t="s" s="2">
         <v>74</v>
@@ -52081,42 +52150,42 @@
         <v>74</v>
       </c>
       <c r="AC424" t="s" s="2">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="AD424" t="s" s="2">
-        <v>74</v>
+        <v>1151</v>
       </c>
       <c r="AE424" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AF424" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="AG424" t="s" s="2">
-        <v>1152</v>
+        <v>427</v>
       </c>
       <c r="AH424" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AI424" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ424" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK424" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="s" s="2">
-        <v>1130</v>
+        <v>625</v>
       </c>
       <c r="B425" t="s" s="2">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="C425" t="s" s="2">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="D425" s="2"/>
       <c r="E425" t="s" s="2">
@@ -52139,22 +52208,24 @@
         <v>74</v>
       </c>
       <c r="L425" t="s" s="2">
-        <v>198</v>
+        <v>93</v>
       </c>
       <c r="M425" t="s" s="2">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="N425" t="s" s="2">
-        <v>1159</v>
-      </c>
-      <c r="O425" s="2"/>
+        <v>1154</v>
+      </c>
+      <c r="O425" t="s" s="2">
+        <v>1155</v>
+      </c>
       <c r="P425" s="2"/>
       <c r="Q425" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R425" s="2"/>
       <c r="S425" t="s" s="2">
-        <v>74</v>
+        <v>1325</v>
       </c>
       <c r="T425" t="s" s="2">
         <v>74</v>
@@ -52172,10 +52243,10 @@
         <v>74</v>
       </c>
       <c r="Y425" t="s" s="2">
-        <v>203</v>
+        <v>74</v>
       </c>
       <c r="Z425" t="s" s="2">
-        <v>1333</v>
+        <v>74</v>
       </c>
       <c r="AA425" t="s" s="2">
         <v>74</v>
@@ -52196,10 +52267,10 @@
         <v>74</v>
       </c>
       <c r="AG425" t="s" s="2">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="AH425" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AI425" t="s" s="2">
         <v>79</v>
@@ -52208,18 +52279,18 @@
         <v>74</v>
       </c>
       <c r="AK425" t="s" s="2">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="s" s="2">
-        <v>1133</v>
+        <v>625</v>
       </c>
       <c r="B426" t="s" s="2">
-        <v>123</v>
+        <v>1156</v>
       </c>
       <c r="C426" t="s" s="2">
-        <v>123</v>
+        <v>1156</v>
       </c>
       <c r="D426" s="2"/>
       <c r="E426" t="s" s="2">
@@ -52242,17 +52313,15 @@
         <v>74</v>
       </c>
       <c r="L426" t="s" s="2">
-        <v>75</v>
+        <v>1166</v>
       </c>
       <c r="M426" t="s" s="2">
-        <v>1339</v>
+        <v>1158</v>
       </c>
       <c r="N426" t="s" s="2">
-        <v>1337</v>
-      </c>
-      <c r="O426" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>1159</v>
+      </c>
+      <c r="O426" s="2"/>
       <c r="P426" s="2"/>
       <c r="Q426" t="s" s="2">
         <v>74</v>
@@ -52277,13 +52346,13 @@
         <v>74</v>
       </c>
       <c r="Y426" t="s" s="2">
-        <v>74</v>
+        <v>188</v>
       </c>
       <c r="Z426" t="s" s="2">
-        <v>74</v>
+        <v>1330</v>
       </c>
       <c r="AA426" t="s" s="2">
-        <v>74</v>
+        <v>1331</v>
       </c>
       <c r="AB426" t="s" s="2">
         <v>74</v>
@@ -52301,30 +52370,30 @@
         <v>74</v>
       </c>
       <c r="AG426" t="s" s="2">
-        <v>123</v>
+        <v>1156</v>
       </c>
       <c r="AH426" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI426" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ426" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AK426" t="s" s="2">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="s" s="2">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="B427" t="s" s="2">
-        <v>1149</v>
+        <v>123</v>
       </c>
       <c r="C427" t="s" s="2">
-        <v>1149</v>
+        <v>123</v>
       </c>
       <c r="D427" s="2"/>
       <c r="E427" t="s" s="2">
@@ -52347,15 +52416,17 @@
         <v>74</v>
       </c>
       <c r="L427" t="s" s="2">
-        <v>329</v>
+        <v>75</v>
       </c>
       <c r="M427" t="s" s="2">
-        <v>421</v>
+        <v>372</v>
       </c>
       <c r="N427" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="O427" s="2"/>
+        <v>1335</v>
+      </c>
+      <c r="O427" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="P427" s="2"/>
       <c r="Q427" t="s" s="2">
         <v>74</v>
@@ -52404,16 +52475,16 @@
         <v>74</v>
       </c>
       <c r="AG427" t="s" s="2">
-        <v>423</v>
+        <v>123</v>
       </c>
       <c r="AH427" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI427" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ427" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="AK427" t="s" s="2">
         <v>74</v>
@@ -52421,13 +52492,13 @@
     </row>
     <row r="428">
       <c r="A428" t="s" s="2">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="B428" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C428" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D428" s="2"/>
       <c r="E428" t="s" s="2">
@@ -52438,7 +52509,7 @@
         <v>72</v>
       </c>
       <c r="H428" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I428" t="s" s="2">
         <v>74</v>
@@ -52450,13 +52521,13 @@
         <v>74</v>
       </c>
       <c r="L428" t="s" s="2">
-        <v>122</v>
+        <v>329</v>
       </c>
       <c r="M428" t="s" s="2">
-        <v>123</v>
+        <v>421</v>
       </c>
       <c r="N428" t="s" s="2">
-        <v>124</v>
+        <v>422</v>
       </c>
       <c r="O428" s="2"/>
       <c r="P428" s="2"/>
@@ -52495,42 +52566,42 @@
         <v>74</v>
       </c>
       <c r="AC428" t="s" s="2">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="AD428" t="s" s="2">
-        <v>1151</v>
+        <v>74</v>
       </c>
       <c r="AE428" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AF428" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="AG428" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="AH428" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI428" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ428" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK428" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="s" s="2">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="B429" t="s" s="2">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C429" t="s" s="2">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="D429" s="2"/>
       <c r="E429" t="s" s="2">
@@ -52538,10 +52609,10 @@
       </c>
       <c r="F429" s="2"/>
       <c r="G429" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H429" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I429" t="s" s="2">
         <v>74</v>
@@ -52553,24 +52624,22 @@
         <v>74</v>
       </c>
       <c r="L429" t="s" s="2">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="M429" t="s" s="2">
-        <v>1153</v>
+        <v>123</v>
       </c>
       <c r="N429" t="s" s="2">
-        <v>1154</v>
-      </c>
-      <c r="O429" t="s" s="2">
-        <v>1155</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="O429" s="2"/>
       <c r="P429" s="2"/>
       <c r="Q429" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R429" s="2"/>
       <c r="S429" t="s" s="2">
-        <v>1340</v>
+        <v>74</v>
       </c>
       <c r="T429" t="s" s="2">
         <v>74</v>
@@ -52600,42 +52669,42 @@
         <v>74</v>
       </c>
       <c r="AC429" t="s" s="2">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="AD429" t="s" s="2">
-        <v>74</v>
+        <v>1151</v>
       </c>
       <c r="AE429" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AF429" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="AG429" t="s" s="2">
-        <v>1152</v>
+        <v>427</v>
       </c>
       <c r="AH429" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AI429" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ429" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK429" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="s" s="2">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="B430" t="s" s="2">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="C430" t="s" s="2">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="D430" s="2"/>
       <c r="E430" t="s" s="2">
@@ -52658,22 +52727,24 @@
         <v>74</v>
       </c>
       <c r="L430" t="s" s="2">
-        <v>1341</v>
+        <v>93</v>
       </c>
       <c r="M430" t="s" s="2">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="N430" t="s" s="2">
-        <v>1159</v>
-      </c>
-      <c r="O430" s="2"/>
+        <v>1154</v>
+      </c>
+      <c r="O430" t="s" s="2">
+        <v>1155</v>
+      </c>
       <c r="P430" s="2"/>
       <c r="Q430" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R430" s="2"/>
       <c r="S430" t="s" s="2">
-        <v>74</v>
+        <v>1339</v>
       </c>
       <c r="T430" t="s" s="2">
         <v>74</v>
@@ -52715,10 +52786,10 @@
         <v>74</v>
       </c>
       <c r="AG430" t="s" s="2">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="AH430" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AI430" t="s" s="2">
         <v>79</v>
@@ -52727,18 +52798,18 @@
         <v>74</v>
       </c>
       <c r="AK430" t="s" s="2">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="s" s="2">
-        <v>136</v>
+        <v>1130</v>
       </c>
       <c r="B431" t="s" s="2">
-        <v>123</v>
+        <v>1156</v>
       </c>
       <c r="C431" t="s" s="2">
-        <v>123</v>
+        <v>1156</v>
       </c>
       <c r="D431" s="2"/>
       <c r="E431" t="s" s="2">
@@ -52752,7 +52823,7 @@
         <v>79</v>
       </c>
       <c r="I431" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J431" t="s" s="2">
         <v>74</v>
@@ -52761,13 +52832,13 @@
         <v>74</v>
       </c>
       <c r="L431" t="s" s="2">
-        <v>75</v>
+        <v>198</v>
       </c>
       <c r="M431" t="s" s="2">
-        <v>139</v>
+        <v>1158</v>
       </c>
       <c r="N431" t="s" s="2">
-        <v>1343</v>
+        <v>1159</v>
       </c>
       <c r="O431" s="2"/>
       <c r="P431" s="2"/>
@@ -52794,10 +52865,10 @@
         <v>74</v>
       </c>
       <c r="Y431" t="s" s="2">
-        <v>74</v>
+        <v>203</v>
       </c>
       <c r="Z431" t="s" s="2">
-        <v>74</v>
+        <v>1340</v>
       </c>
       <c r="AA431" t="s" s="2">
         <v>74</v>
@@ -52818,30 +52889,30 @@
         <v>74</v>
       </c>
       <c r="AG431" t="s" s="2">
-        <v>123</v>
+        <v>1156</v>
       </c>
       <c r="AH431" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI431" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ431" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AK431" t="s" s="2">
-        <v>128</v>
+        <v>91</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="s" s="2">
-        <v>136</v>
+        <v>1133</v>
       </c>
       <c r="B432" t="s" s="2">
-        <v>1149</v>
+        <v>123</v>
       </c>
       <c r="C432" t="s" s="2">
-        <v>1149</v>
+        <v>123</v>
       </c>
       <c r="D432" s="2"/>
       <c r="E432" t="s" s="2">
@@ -52864,15 +52935,17 @@
         <v>74</v>
       </c>
       <c r="L432" t="s" s="2">
-        <v>329</v>
+        <v>75</v>
       </c>
       <c r="M432" t="s" s="2">
-        <v>421</v>
+        <v>1346</v>
       </c>
       <c r="N432" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="O432" s="2"/>
+        <v>1344</v>
+      </c>
+      <c r="O432" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="P432" s="2"/>
       <c r="Q432" t="s" s="2">
         <v>74</v>
@@ -52921,16 +52994,16 @@
         <v>74</v>
       </c>
       <c r="AG432" t="s" s="2">
-        <v>423</v>
+        <v>123</v>
       </c>
       <c r="AH432" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI432" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ432" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="AK432" t="s" s="2">
         <v>74</v>
@@ -52938,13 +53011,13 @@
     </row>
     <row r="433">
       <c r="A433" t="s" s="2">
-        <v>136</v>
+        <v>1133</v>
       </c>
       <c r="B433" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C433" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D433" s="2"/>
       <c r="E433" t="s" s="2">
@@ -52955,7 +53028,7 @@
         <v>72</v>
       </c>
       <c r="H433" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I433" t="s" s="2">
         <v>74</v>
@@ -52967,13 +53040,13 @@
         <v>74</v>
       </c>
       <c r="L433" t="s" s="2">
-        <v>122</v>
+        <v>329</v>
       </c>
       <c r="M433" t="s" s="2">
-        <v>123</v>
+        <v>421</v>
       </c>
       <c r="N433" t="s" s="2">
-        <v>124</v>
+        <v>422</v>
       </c>
       <c r="O433" s="2"/>
       <c r="P433" s="2"/>
@@ -53012,42 +53085,42 @@
         <v>74</v>
       </c>
       <c r="AC433" t="s" s="2">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="AD433" t="s" s="2">
-        <v>1151</v>
+        <v>74</v>
       </c>
       <c r="AE433" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AF433" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="AG433" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="AH433" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI433" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ433" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK433" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="s" s="2">
-        <v>136</v>
+        <v>1133</v>
       </c>
       <c r="B434" t="s" s="2">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C434" t="s" s="2">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="D434" s="2"/>
       <c r="E434" t="s" s="2">
@@ -53055,10 +53128,10 @@
       </c>
       <c r="F434" s="2"/>
       <c r="G434" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H434" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I434" t="s" s="2">
         <v>74</v>
@@ -53070,24 +53143,22 @@
         <v>74</v>
       </c>
       <c r="L434" t="s" s="2">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="M434" t="s" s="2">
-        <v>1153</v>
+        <v>123</v>
       </c>
       <c r="N434" t="s" s="2">
-        <v>1154</v>
-      </c>
-      <c r="O434" t="s" s="2">
-        <v>1155</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="O434" s="2"/>
       <c r="P434" s="2"/>
       <c r="Q434" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R434" s="2"/>
       <c r="S434" t="s" s="2">
-        <v>1342</v>
+        <v>74</v>
       </c>
       <c r="T434" t="s" s="2">
         <v>74</v>
@@ -53117,42 +53188,42 @@
         <v>74</v>
       </c>
       <c r="AC434" t="s" s="2">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="AD434" t="s" s="2">
-        <v>74</v>
+        <v>1151</v>
       </c>
       <c r="AE434" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AF434" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="AG434" t="s" s="2">
-        <v>1152</v>
+        <v>427</v>
       </c>
       <c r="AH434" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AI434" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ434" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK434" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="s" s="2">
-        <v>136</v>
+        <v>1133</v>
       </c>
       <c r="B435" t="s" s="2">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="C435" t="s" s="2">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="D435" s="2"/>
       <c r="E435" t="s" s="2">
@@ -53160,7 +53231,7 @@
       </c>
       <c r="F435" s="2"/>
       <c r="G435" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H435" t="s" s="2">
         <v>79</v>
@@ -53175,22 +53246,24 @@
         <v>74</v>
       </c>
       <c r="L435" t="s" s="2">
-        <v>1344</v>
+        <v>93</v>
       </c>
       <c r="M435" t="s" s="2">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="N435" t="s" s="2">
-        <v>1159</v>
-      </c>
-      <c r="O435" s="2"/>
+        <v>1154</v>
+      </c>
+      <c r="O435" t="s" s="2">
+        <v>1155</v>
+      </c>
       <c r="P435" s="2"/>
       <c r="Q435" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R435" s="2"/>
       <c r="S435" t="s" s="2">
-        <v>74</v>
+        <v>1347</v>
       </c>
       <c r="T435" t="s" s="2">
         <v>74</v>
@@ -53232,10 +53305,10 @@
         <v>74</v>
       </c>
       <c r="AG435" t="s" s="2">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="AH435" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AI435" t="s" s="2">
         <v>79</v>
@@ -53244,18 +53317,18 @@
         <v>74</v>
       </c>
       <c r="AK435" t="s" s="2">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="s" s="2">
-        <v>938</v>
+        <v>1133</v>
       </c>
       <c r="B436" t="s" s="2">
-        <v>123</v>
+        <v>1156</v>
       </c>
       <c r="C436" t="s" s="2">
-        <v>123</v>
+        <v>1156</v>
       </c>
       <c r="D436" s="2"/>
       <c r="E436" t="s" s="2">
@@ -53263,10 +53336,10 @@
       </c>
       <c r="F436" s="2"/>
       <c r="G436" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H436" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I436" t="s" s="2">
         <v>74</v>
@@ -53278,13 +53351,13 @@
         <v>74</v>
       </c>
       <c r="L436" t="s" s="2">
-        <v>75</v>
+        <v>1348</v>
       </c>
       <c r="M436" t="s" s="2">
-        <v>1346</v>
+        <v>1158</v>
       </c>
       <c r="N436" t="s" s="2">
-        <v>1346</v>
+        <v>1159</v>
       </c>
       <c r="O436" s="2"/>
       <c r="P436" s="2"/>
@@ -53335,30 +53408,30 @@
         <v>74</v>
       </c>
       <c r="AG436" t="s" s="2">
-        <v>123</v>
+        <v>1156</v>
       </c>
       <c r="AH436" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI436" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ436" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AK436" t="s" s="2">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="s" s="2">
-        <v>938</v>
+        <v>136</v>
       </c>
       <c r="B437" t="s" s="2">
-        <v>1149</v>
+        <v>123</v>
       </c>
       <c r="C437" t="s" s="2">
-        <v>1149</v>
+        <v>123</v>
       </c>
       <c r="D437" s="2"/>
       <c r="E437" t="s" s="2">
@@ -53366,13 +53439,13 @@
       </c>
       <c r="F437" s="2"/>
       <c r="G437" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H437" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I437" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="J437" t="s" s="2">
         <v>74</v>
@@ -53381,13 +53454,13 @@
         <v>74</v>
       </c>
       <c r="L437" t="s" s="2">
-        <v>329</v>
+        <v>75</v>
       </c>
       <c r="M437" t="s" s="2">
-        <v>421</v>
+        <v>139</v>
       </c>
       <c r="N437" t="s" s="2">
-        <v>422</v>
+        <v>1350</v>
       </c>
       <c r="O437" s="2"/>
       <c r="P437" s="2"/>
@@ -53438,41 +53511,41 @@
         <v>74</v>
       </c>
       <c r="AG437" t="s" s="2">
-        <v>423</v>
+        <v>123</v>
       </c>
       <c r="AH437" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI437" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ437" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="AK437" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="s" s="2">
-        <v>938</v>
+        <v>136</v>
       </c>
       <c r="B438" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C438" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D438" s="2"/>
       <c r="E438" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="F438" s="2"/>
       <c r="G438" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H438" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I438" t="s" s="2">
         <v>74</v>
@@ -53484,17 +53557,15 @@
         <v>74</v>
       </c>
       <c r="L438" t="s" s="2">
-        <v>122</v>
+        <v>329</v>
       </c>
       <c r="M438" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="N438" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O438" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="O438" s="2"/>
       <c r="P438" s="2"/>
       <c r="Q438" t="s" s="2">
         <v>74</v>
@@ -53531,46 +53602,44 @@
         <v>74</v>
       </c>
       <c r="AC438" t="s" s="2">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="AD438" t="s" s="2">
-        <v>1151</v>
+        <v>74</v>
       </c>
       <c r="AE438" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AF438" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="AG438" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="AH438" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI438" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ438" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK438" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="s" s="2">
-        <v>938</v>
+        <v>136</v>
       </c>
       <c r="B439" t="s" s="2">
-        <v>1347</v>
+        <v>1150</v>
       </c>
       <c r="C439" t="s" s="2">
         <v>1150</v>
       </c>
-      <c r="D439" t="s" s="2">
-        <v>1348</v>
-      </c>
+      <c r="D439" s="2"/>
       <c r="E439" t="s" s="2">
         <v>74</v>
       </c>
@@ -53579,10 +53648,10 @@
         <v>72</v>
       </c>
       <c r="H439" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I439" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J439" t="s" s="2">
         <v>74</v>
@@ -53594,10 +53663,10 @@
         <v>122</v>
       </c>
       <c r="M439" t="s" s="2">
-        <v>1349</v>
+        <v>123</v>
       </c>
       <c r="N439" t="s" s="2">
-        <v>1349</v>
+        <v>124</v>
       </c>
       <c r="O439" s="2"/>
       <c r="P439" s="2"/>
@@ -53636,16 +53705,16 @@
         <v>74</v>
       </c>
       <c r="AC439" t="s" s="2">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="AD439" t="s" s="2">
-        <v>74</v>
+        <v>1151</v>
       </c>
       <c r="AE439" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AF439" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="AG439" t="s" s="2">
         <v>427</v>
@@ -53665,13 +53734,13 @@
     </row>
     <row r="440">
       <c r="A440" t="s" s="2">
-        <v>938</v>
+        <v>136</v>
       </c>
       <c r="B440" t="s" s="2">
-        <v>1350</v>
+        <v>1152</v>
       </c>
       <c r="C440" t="s" s="2">
-        <v>1180</v>
+        <v>1152</v>
       </c>
       <c r="D440" s="2"/>
       <c r="E440" t="s" s="2">
@@ -53679,7 +53748,7 @@
       </c>
       <c r="F440" s="2"/>
       <c r="G440" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H440" t="s" s="2">
         <v>79</v>
@@ -53694,22 +53763,24 @@
         <v>74</v>
       </c>
       <c r="L440" t="s" s="2">
-        <v>329</v>
+        <v>93</v>
       </c>
       <c r="M440" t="s" s="2">
-        <v>421</v>
+        <v>1153</v>
       </c>
       <c r="N440" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="O440" s="2"/>
+        <v>1154</v>
+      </c>
+      <c r="O440" t="s" s="2">
+        <v>1155</v>
+      </c>
       <c r="P440" s="2"/>
       <c r="Q440" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R440" s="2"/>
       <c r="S440" t="s" s="2">
-        <v>74</v>
+        <v>1349</v>
       </c>
       <c r="T440" t="s" s="2">
         <v>74</v>
@@ -53751,10 +53822,10 @@
         <v>74</v>
       </c>
       <c r="AG440" t="s" s="2">
-        <v>423</v>
+        <v>1152</v>
       </c>
       <c r="AH440" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AI440" t="s" s="2">
         <v>79</v>
@@ -53768,24 +53839,24 @@
     </row>
     <row r="441">
       <c r="A441" t="s" s="2">
-        <v>938</v>
+        <v>136</v>
       </c>
       <c r="B441" t="s" s="2">
-        <v>1351</v>
+        <v>1156</v>
       </c>
       <c r="C441" t="s" s="2">
-        <v>1182</v>
+        <v>1156</v>
       </c>
       <c r="D441" s="2"/>
       <c r="E441" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="F441" s="2"/>
       <c r="G441" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H441" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I441" t="s" s="2">
         <v>74</v>
@@ -53797,17 +53868,15 @@
         <v>74</v>
       </c>
       <c r="L441" t="s" s="2">
-        <v>122</v>
+        <v>1351</v>
       </c>
       <c r="M441" t="s" s="2">
-        <v>425</v>
+        <v>1158</v>
       </c>
       <c r="N441" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O441" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>1159</v>
+      </c>
+      <c r="O441" s="2"/>
       <c r="P441" s="2"/>
       <c r="Q441" t="s" s="2">
         <v>74</v>
@@ -53844,31 +53913,31 @@
         <v>74</v>
       </c>
       <c r="AC441" t="s" s="2">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="AD441" t="s" s="2">
-        <v>1151</v>
+        <v>74</v>
       </c>
       <c r="AE441" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AF441" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="AG441" t="s" s="2">
-        <v>427</v>
+        <v>1156</v>
       </c>
       <c r="AH441" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI441" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ441" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK441" t="s" s="2">
-        <v>128</v>
+        <v>91</v>
       </c>
     </row>
     <row r="442">
@@ -53876,10 +53945,10 @@
         <v>938</v>
       </c>
       <c r="B442" t="s" s="2">
-        <v>1352</v>
+        <v>123</v>
       </c>
       <c r="C442" t="s" s="2">
-        <v>1184</v>
+        <v>123</v>
       </c>
       <c r="D442" s="2"/>
       <c r="E442" t="s" s="2">
@@ -53887,10 +53956,10 @@
       </c>
       <c r="F442" s="2"/>
       <c r="G442" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H442" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I442" t="s" s="2">
         <v>74</v>
@@ -53902,24 +53971,22 @@
         <v>74</v>
       </c>
       <c r="L442" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="M442" t="s" s="2">
-        <v>1153</v>
+        <v>1353</v>
       </c>
       <c r="N442" t="s" s="2">
-        <v>1154</v>
-      </c>
-      <c r="O442" t="s" s="2">
-        <v>1155</v>
-      </c>
+        <v>1353</v>
+      </c>
+      <c r="O442" s="2"/>
       <c r="P442" s="2"/>
       <c r="Q442" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R442" s="2"/>
       <c r="S442" t="s" s="2">
-        <v>1348</v>
+        <v>74</v>
       </c>
       <c r="T442" t="s" s="2">
         <v>74</v>
@@ -53961,16 +54028,16 @@
         <v>74</v>
       </c>
       <c r="AG442" t="s" s="2">
-        <v>1152</v>
+        <v>123</v>
       </c>
       <c r="AH442" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AI442" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ442" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="AK442" t="s" s="2">
         <v>74</v>
@@ -53981,10 +54048,10 @@
         <v>938</v>
       </c>
       <c r="B443" t="s" s="2">
-        <v>1353</v>
+        <v>1149</v>
       </c>
       <c r="C443" t="s" s="2">
-        <v>1186</v>
+        <v>1149</v>
       </c>
       <c r="D443" s="2"/>
       <c r="E443" t="s" s="2">
@@ -53992,7 +54059,7 @@
       </c>
       <c r="F443" s="2"/>
       <c r="G443" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H443" t="s" s="2">
         <v>79</v>
@@ -54010,10 +54077,10 @@
         <v>329</v>
       </c>
       <c r="M443" t="s" s="2">
-        <v>1158</v>
+        <v>421</v>
       </c>
       <c r="N443" t="s" s="2">
-        <v>1159</v>
+        <v>422</v>
       </c>
       <c r="O443" s="2"/>
       <c r="P443" s="2"/>
@@ -54052,17 +54119,19 @@
         <v>74</v>
       </c>
       <c r="AC443" t="s" s="2">
-        <v>1216</v>
-      </c>
-      <c r="AD443" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AD443" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AE443" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AF443" t="s" s="2">
-        <v>1217</v>
+        <v>74</v>
       </c>
       <c r="AG443" t="s" s="2">
-        <v>1156</v>
+        <v>423</v>
       </c>
       <c r="AH443" t="s" s="2">
         <v>72</v>
@@ -54074,7 +54143,7 @@
         <v>74</v>
       </c>
       <c r="AK443" t="s" s="2">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="444">
@@ -54082,23 +54151,21 @@
         <v>938</v>
       </c>
       <c r="B444" t="s" s="2">
-        <v>1354</v>
+        <v>1150</v>
       </c>
       <c r="C444" t="s" s="2">
-        <v>1186</v>
-      </c>
-      <c r="D444" t="s" s="2">
-        <v>1219</v>
-      </c>
+        <v>1150</v>
+      </c>
+      <c r="D444" s="2"/>
       <c r="E444" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="F444" s="2"/>
       <c r="G444" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H444" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I444" t="s" s="2">
         <v>74</v>
@@ -54110,15 +54177,17 @@
         <v>74</v>
       </c>
       <c r="L444" t="s" s="2">
-        <v>329</v>
+        <v>122</v>
       </c>
       <c r="M444" t="s" s="2">
-        <v>1158</v>
+        <v>425</v>
       </c>
       <c r="N444" t="s" s="2">
-        <v>1159</v>
-      </c>
-      <c r="O444" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="O444" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P444" s="2"/>
       <c r="Q444" t="s" s="2">
         <v>74</v>
@@ -54155,31 +54224,31 @@
         <v>74</v>
       </c>
       <c r="AC444" t="s" s="2">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="AD444" t="s" s="2">
-        <v>74</v>
+        <v>1151</v>
       </c>
       <c r="AE444" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AF444" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="AG444" t="s" s="2">
-        <v>1156</v>
+        <v>427</v>
       </c>
       <c r="AH444" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI444" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ444" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK444" t="s" s="2">
-        <v>91</v>
+        <v>128</v>
       </c>
     </row>
     <row r="445">
@@ -54187,13 +54256,13 @@
         <v>938</v>
       </c>
       <c r="B445" t="s" s="2">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C445" t="s" s="2">
         <v>1150</v>
       </c>
       <c r="D445" t="s" s="2">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="E445" t="s" s="2">
         <v>74</v>
@@ -54218,10 +54287,10 @@
         <v>122</v>
       </c>
       <c r="M445" t="s" s="2">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="N445" t="s" s="2">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="O445" s="2"/>
       <c r="P445" s="2"/>
@@ -54292,7 +54361,7 @@
         <v>938</v>
       </c>
       <c r="B446" t="s" s="2">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C446" t="s" s="2">
         <v>1180</v>
@@ -54395,7 +54464,7 @@
         <v>938</v>
       </c>
       <c r="B447" t="s" s="2">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C447" t="s" s="2">
         <v>1182</v>
@@ -54500,7 +54569,7 @@
         <v>938</v>
       </c>
       <c r="B448" t="s" s="2">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C448" t="s" s="2">
         <v>1184</v>
@@ -54543,7 +54612,7 @@
       </c>
       <c r="R448" s="2"/>
       <c r="S448" t="s" s="2">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="T448" t="s" s="2">
         <v>74</v>
@@ -54605,7 +54674,7 @@
         <v>938</v>
       </c>
       <c r="B449" t="s" s="2">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C449" t="s" s="2">
         <v>1186</v>
@@ -54706,7 +54775,7 @@
         <v>938</v>
       </c>
       <c r="B450" t="s" s="2">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C450" t="s" s="2">
         <v>1186</v>
@@ -54811,13 +54880,13 @@
         <v>938</v>
       </c>
       <c r="B451" t="s" s="2">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="C451" t="s" s="2">
         <v>1150</v>
       </c>
       <c r="D451" t="s" s="2">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="E451" t="s" s="2">
         <v>74</v>
@@ -54830,7 +54899,7 @@
         <v>79</v>
       </c>
       <c r="I451" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="J451" t="s" s="2">
         <v>74</v>
@@ -54842,10 +54911,10 @@
         <v>122</v>
       </c>
       <c r="M451" t="s" s="2">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="N451" t="s" s="2">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="O451" s="2"/>
       <c r="P451" s="2"/>
@@ -54916,7 +54985,7 @@
         <v>938</v>
       </c>
       <c r="B452" t="s" s="2">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C452" t="s" s="2">
         <v>1180</v>
@@ -55019,7 +55088,7 @@
         <v>938</v>
       </c>
       <c r="B453" t="s" s="2">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C453" t="s" s="2">
         <v>1182</v>
@@ -55124,7 +55193,7 @@
         <v>938</v>
       </c>
       <c r="B454" t="s" s="2">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="C454" t="s" s="2">
         <v>1184</v>
@@ -55167,7 +55236,7 @@
       </c>
       <c r="R454" s="2"/>
       <c r="S454" t="s" s="2">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="T454" t="s" s="2">
         <v>74</v>
@@ -55229,7 +55298,7 @@
         <v>938</v>
       </c>
       <c r="B455" t="s" s="2">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="C455" t="s" s="2">
         <v>1186</v>
@@ -55255,7 +55324,7 @@
         <v>74</v>
       </c>
       <c r="L455" t="s" s="2">
-        <v>1166</v>
+        <v>329</v>
       </c>
       <c r="M455" t="s" s="2">
         <v>1158</v>
@@ -55330,13 +55399,13 @@
         <v>938</v>
       </c>
       <c r="B456" t="s" s="2">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="C456" t="s" s="2">
         <v>1186</v>
       </c>
       <c r="D456" t="s" s="2">
-        <v>1287</v>
+        <v>1219</v>
       </c>
       <c r="E456" t="s" s="2">
         <v>74</v>
@@ -55358,7 +55427,7 @@
         <v>74</v>
       </c>
       <c r="L456" t="s" s="2">
-        <v>1166</v>
+        <v>329</v>
       </c>
       <c r="M456" t="s" s="2">
         <v>1158</v>
@@ -55391,13 +55460,13 @@
         <v>74</v>
       </c>
       <c r="Y456" t="s" s="2">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="Z456" t="s" s="2">
-        <v>1365</v>
+        <v>74</v>
       </c>
       <c r="AA456" t="s" s="2">
-        <v>1371</v>
+        <v>74</v>
       </c>
       <c r="AB456" t="s" s="2">
         <v>74</v>
@@ -55435,18 +55504,20 @@
         <v>938</v>
       </c>
       <c r="B457" t="s" s="2">
-        <v>1152</v>
+        <v>1370</v>
       </c>
       <c r="C457" t="s" s="2">
-        <v>1152</v>
-      </c>
-      <c r="D457" s="2"/>
+        <v>1150</v>
+      </c>
+      <c r="D457" t="s" s="2">
+        <v>1371</v>
+      </c>
       <c r="E457" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F457" s="2"/>
       <c r="G457" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H457" t="s" s="2">
         <v>79</v>
@@ -55461,24 +55532,22 @@
         <v>74</v>
       </c>
       <c r="L457" t="s" s="2">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="M457" t="s" s="2">
-        <v>1153</v>
+        <v>1372</v>
       </c>
       <c r="N457" t="s" s="2">
-        <v>1154</v>
-      </c>
-      <c r="O457" t="s" s="2">
-        <v>1155</v>
-      </c>
+        <v>1372</v>
+      </c>
+      <c r="O457" s="2"/>
       <c r="P457" s="2"/>
       <c r="Q457" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R457" s="2"/>
       <c r="S457" t="s" s="2">
-        <v>1345</v>
+        <v>74</v>
       </c>
       <c r="T457" t="s" s="2">
         <v>74</v>
@@ -55520,19 +55589,19 @@
         <v>74</v>
       </c>
       <c r="AG457" t="s" s="2">
-        <v>1152</v>
+        <v>427</v>
       </c>
       <c r="AH457" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AI457" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ457" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK457" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
     </row>
     <row r="458">
@@ -55540,10 +55609,10 @@
         <v>938</v>
       </c>
       <c r="B458" t="s" s="2">
-        <v>1156</v>
+        <v>1373</v>
       </c>
       <c r="C458" t="s" s="2">
-        <v>1156</v>
+        <v>1180</v>
       </c>
       <c r="D458" s="2"/>
       <c r="E458" t="s" s="2">
@@ -55554,7 +55623,7 @@
         <v>72</v>
       </c>
       <c r="H458" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I458" t="s" s="2">
         <v>74</v>
@@ -55566,13 +55635,13 @@
         <v>74</v>
       </c>
       <c r="L458" t="s" s="2">
-        <v>1106</v>
+        <v>329</v>
       </c>
       <c r="M458" t="s" s="2">
-        <v>1158</v>
+        <v>421</v>
       </c>
       <c r="N458" t="s" s="2">
-        <v>1159</v>
+        <v>422</v>
       </c>
       <c r="O458" s="2"/>
       <c r="P458" s="2"/>
@@ -55623,7 +55692,7 @@
         <v>74</v>
       </c>
       <c r="AG458" t="s" s="2">
-        <v>1156</v>
+        <v>423</v>
       </c>
       <c r="AH458" t="s" s="2">
         <v>72</v>
@@ -55635,22 +55704,22 @@
         <v>74</v>
       </c>
       <c r="AK458" t="s" s="2">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="s" s="2">
-        <v>1136</v>
+        <v>938</v>
       </c>
       <c r="B459" t="s" s="2">
-        <v>123</v>
+        <v>1374</v>
       </c>
       <c r="C459" t="s" s="2">
-        <v>123</v>
+        <v>1182</v>
       </c>
       <c r="D459" s="2"/>
       <c r="E459" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="F459" s="2"/>
       <c r="G459" t="s" s="2">
@@ -55660,7 +55729,7 @@
         <v>73</v>
       </c>
       <c r="I459" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J459" t="s" s="2">
         <v>74</v>
@@ -55669,15 +55738,17 @@
         <v>74</v>
       </c>
       <c r="L459" t="s" s="2">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="M459" t="s" s="2">
-        <v>1374</v>
+        <v>425</v>
       </c>
       <c r="N459" t="s" s="2">
-        <v>1373</v>
-      </c>
-      <c r="O459" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="O459" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P459" s="2"/>
       <c r="Q459" t="s" s="2">
         <v>74</v>
@@ -55714,19 +55785,19 @@
         <v>74</v>
       </c>
       <c r="AC459" t="s" s="2">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="AD459" t="s" s="2">
-        <v>74</v>
+        <v>1151</v>
       </c>
       <c r="AE459" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AF459" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="AG459" t="s" s="2">
-        <v>123</v>
+        <v>427</v>
       </c>
       <c r="AH459" t="s" s="2">
         <v>72</v>
@@ -55735,7 +55806,7 @@
         <v>73</v>
       </c>
       <c r="AJ459" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AK459" t="s" s="2">
         <v>128</v>
@@ -55743,13 +55814,13 @@
     </row>
     <row r="460">
       <c r="A460" t="s" s="2">
-        <v>1136</v>
+        <v>938</v>
       </c>
       <c r="B460" t="s" s="2">
-        <v>1149</v>
+        <v>1375</v>
       </c>
       <c r="C460" t="s" s="2">
-        <v>1149</v>
+        <v>1184</v>
       </c>
       <c r="D460" s="2"/>
       <c r="E460" t="s" s="2">
@@ -55757,7 +55828,7 @@
       </c>
       <c r="F460" s="2"/>
       <c r="G460" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H460" t="s" s="2">
         <v>79</v>
@@ -55772,22 +55843,24 @@
         <v>74</v>
       </c>
       <c r="L460" t="s" s="2">
-        <v>329</v>
+        <v>93</v>
       </c>
       <c r="M460" t="s" s="2">
-        <v>421</v>
+        <v>1153</v>
       </c>
       <c r="N460" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="O460" s="2"/>
+        <v>1154</v>
+      </c>
+      <c r="O460" t="s" s="2">
+        <v>1155</v>
+      </c>
       <c r="P460" s="2"/>
       <c r="Q460" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R460" s="2"/>
       <c r="S460" t="s" s="2">
-        <v>74</v>
+        <v>1371</v>
       </c>
       <c r="T460" t="s" s="2">
         <v>74</v>
@@ -55829,10 +55902,10 @@
         <v>74</v>
       </c>
       <c r="AG460" t="s" s="2">
-        <v>423</v>
+        <v>1152</v>
       </c>
       <c r="AH460" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AI460" t="s" s="2">
         <v>79</v>
@@ -55846,24 +55919,24 @@
     </row>
     <row r="461">
       <c r="A461" t="s" s="2">
-        <v>1136</v>
+        <v>938</v>
       </c>
       <c r="B461" t="s" s="2">
-        <v>1150</v>
+        <v>1376</v>
       </c>
       <c r="C461" t="s" s="2">
-        <v>1150</v>
+        <v>1186</v>
       </c>
       <c r="D461" s="2"/>
       <c r="E461" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="F461" s="2"/>
       <c r="G461" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H461" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I461" t="s" s="2">
         <v>74</v>
@@ -55875,17 +55948,15 @@
         <v>74</v>
       </c>
       <c r="L461" t="s" s="2">
-        <v>122</v>
+        <v>1166</v>
       </c>
       <c r="M461" t="s" s="2">
-        <v>425</v>
+        <v>1158</v>
       </c>
       <c r="N461" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O461" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>1159</v>
+      </c>
+      <c r="O461" s="2"/>
       <c r="P461" s="2"/>
       <c r="Q461" t="s" s="2">
         <v>74</v>
@@ -55922,45 +55993,43 @@
         <v>74</v>
       </c>
       <c r="AC461" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AD461" t="s" s="2">
-        <v>1151</v>
-      </c>
+        <v>1216</v>
+      </c>
+      <c r="AD461" s="2"/>
       <c r="AE461" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AF461" t="s" s="2">
-        <v>126</v>
+        <v>1217</v>
       </c>
       <c r="AG461" t="s" s="2">
-        <v>427</v>
+        <v>1156</v>
       </c>
       <c r="AH461" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI461" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ461" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK461" t="s" s="2">
-        <v>128</v>
+        <v>91</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="s" s="2">
-        <v>1136</v>
+        <v>938</v>
       </c>
       <c r="B462" t="s" s="2">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="C462" t="s" s="2">
-        <v>1150</v>
+        <v>1186</v>
       </c>
       <c r="D462" t="s" s="2">
-        <v>1376</v>
+        <v>1287</v>
       </c>
       <c r="E462" t="s" s="2">
         <v>74</v>
@@ -55970,7 +56039,7 @@
         <v>79</v>
       </c>
       <c r="H462" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I462" t="s" s="2">
         <v>74</v>
@@ -55982,13 +56051,13 @@
         <v>74</v>
       </c>
       <c r="L462" t="s" s="2">
-        <v>122</v>
+        <v>1166</v>
       </c>
       <c r="M462" t="s" s="2">
-        <v>1377</v>
+        <v>1158</v>
       </c>
       <c r="N462" t="s" s="2">
-        <v>1377</v>
+        <v>1159</v>
       </c>
       <c r="O462" s="2"/>
       <c r="P462" s="2"/>
@@ -56015,13 +56084,13 @@
         <v>74</v>
       </c>
       <c r="Y462" t="s" s="2">
-        <v>74</v>
+        <v>188</v>
       </c>
       <c r="Z462" t="s" s="2">
-        <v>74</v>
+        <v>1372</v>
       </c>
       <c r="AA462" t="s" s="2">
-        <v>74</v>
+        <v>1378</v>
       </c>
       <c r="AB462" t="s" s="2">
         <v>74</v>
@@ -56039,32 +56108,34 @@
         <v>74</v>
       </c>
       <c r="AG462" t="s" s="2">
-        <v>427</v>
+        <v>1156</v>
       </c>
       <c r="AH462" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI462" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ462" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK462" t="s" s="2">
-        <v>128</v>
+        <v>91</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="s" s="2">
-        <v>1136</v>
+        <v>938</v>
       </c>
       <c r="B463" t="s" s="2">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="C463" t="s" s="2">
-        <v>1180</v>
-      </c>
-      <c r="D463" s="2"/>
+        <v>1150</v>
+      </c>
+      <c r="D463" t="s" s="2">
+        <v>1380</v>
+      </c>
       <c r="E463" t="s" s="2">
         <v>74</v>
       </c>
@@ -56076,7 +56147,7 @@
         <v>79</v>
       </c>
       <c r="I463" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="J463" t="s" s="2">
         <v>74</v>
@@ -56085,13 +56156,13 @@
         <v>74</v>
       </c>
       <c r="L463" t="s" s="2">
-        <v>329</v>
+        <v>122</v>
       </c>
       <c r="M463" t="s" s="2">
-        <v>421</v>
+        <v>1381</v>
       </c>
       <c r="N463" t="s" s="2">
-        <v>422</v>
+        <v>1381</v>
       </c>
       <c r="O463" s="2"/>
       <c r="P463" s="2"/>
@@ -56142,41 +56213,41 @@
         <v>74</v>
       </c>
       <c r="AG463" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="AH463" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI463" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ463" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK463" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="s" s="2">
-        <v>1136</v>
+        <v>938</v>
       </c>
       <c r="B464" t="s" s="2">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="C464" t="s" s="2">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="D464" s="2"/>
       <c r="E464" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="F464" s="2"/>
       <c r="G464" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H464" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I464" t="s" s="2">
         <v>74</v>
@@ -56188,17 +56259,15 @@
         <v>74</v>
       </c>
       <c r="L464" t="s" s="2">
-        <v>122</v>
+        <v>329</v>
       </c>
       <c r="M464" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="N464" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O464" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="O464" s="2"/>
       <c r="P464" s="2"/>
       <c r="Q464" t="s" s="2">
         <v>74</v>
@@ -56235,53 +56304,53 @@
         <v>74</v>
       </c>
       <c r="AC464" t="s" s="2">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="AD464" t="s" s="2">
-        <v>1151</v>
+        <v>74</v>
       </c>
       <c r="AE464" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AF464" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="AG464" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="AH464" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI464" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ464" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK464" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="s" s="2">
-        <v>1136</v>
+        <v>938</v>
       </c>
       <c r="B465" t="s" s="2">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="C465" t="s" s="2">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="D465" s="2"/>
       <c r="E465" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="F465" s="2"/>
       <c r="G465" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H465" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I465" t="s" s="2">
         <v>74</v>
@@ -56293,16 +56362,16 @@
         <v>74</v>
       </c>
       <c r="L465" t="s" s="2">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="M465" t="s" s="2">
-        <v>1153</v>
+        <v>425</v>
       </c>
       <c r="N465" t="s" s="2">
-        <v>1154</v>
+        <v>426</v>
       </c>
       <c r="O465" t="s" s="2">
-        <v>1155</v>
+        <v>151</v>
       </c>
       <c r="P465" s="2"/>
       <c r="Q465" t="s" s="2">
@@ -56310,7 +56379,7 @@
       </c>
       <c r="R465" s="2"/>
       <c r="S465" t="s" s="2">
-        <v>1376</v>
+        <v>74</v>
       </c>
       <c r="T465" t="s" s="2">
         <v>74</v>
@@ -56340,42 +56409,42 @@
         <v>74</v>
       </c>
       <c r="AC465" t="s" s="2">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="AD465" t="s" s="2">
-        <v>74</v>
+        <v>1151</v>
       </c>
       <c r="AE465" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AF465" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="AG465" t="s" s="2">
-        <v>1152</v>
+        <v>427</v>
       </c>
       <c r="AH465" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AI465" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ465" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK465" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="s" s="2">
-        <v>1136</v>
+        <v>938</v>
       </c>
       <c r="B466" t="s" s="2">
-        <v>1381</v>
+        <v>1384</v>
       </c>
       <c r="C466" t="s" s="2">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D466" s="2"/>
       <c r="E466" t="s" s="2">
@@ -56383,7 +56452,7 @@
       </c>
       <c r="F466" s="2"/>
       <c r="G466" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H466" t="s" s="2">
         <v>79</v>
@@ -56398,22 +56467,24 @@
         <v>74</v>
       </c>
       <c r="L466" t="s" s="2">
-        <v>522</v>
+        <v>93</v>
       </c>
       <c r="M466" t="s" s="2">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="N466" t="s" s="2">
-        <v>1159</v>
-      </c>
-      <c r="O466" s="2"/>
+        <v>1154</v>
+      </c>
+      <c r="O466" t="s" s="2">
+        <v>1155</v>
+      </c>
       <c r="P466" s="2"/>
       <c r="Q466" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R466" s="2"/>
       <c r="S466" t="s" s="2">
-        <v>74</v>
+        <v>1380</v>
       </c>
       <c r="T466" t="s" s="2">
         <v>74</v>
@@ -56455,10 +56526,10 @@
         <v>74</v>
       </c>
       <c r="AG466" t="s" s="2">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="AH466" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AI466" t="s" s="2">
         <v>79</v>
@@ -56467,31 +56538,29 @@
         <v>74</v>
       </c>
       <c r="AK466" t="s" s="2">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="s" s="2">
-        <v>1136</v>
+        <v>938</v>
       </c>
       <c r="B467" t="s" s="2">
-        <v>1382</v>
+        <v>1385</v>
       </c>
       <c r="C467" t="s" s="2">
-        <v>1150</v>
-      </c>
-      <c r="D467" t="s" s="2">
-        <v>1383</v>
-      </c>
+        <v>1186</v>
+      </c>
+      <c r="D467" s="2"/>
       <c r="E467" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F467" s="2"/>
       <c r="G467" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H467" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I467" t="s" s="2">
         <v>74</v>
@@ -56503,13 +56572,13 @@
         <v>74</v>
       </c>
       <c r="L467" t="s" s="2">
-        <v>122</v>
+        <v>329</v>
       </c>
       <c r="M467" t="s" s="2">
-        <v>1384</v>
+        <v>1158</v>
       </c>
       <c r="N467" t="s" s="2">
-        <v>1384</v>
+        <v>1159</v>
       </c>
       <c r="O467" s="2"/>
       <c r="P467" s="2"/>
@@ -56548,44 +56617,44 @@
         <v>74</v>
       </c>
       <c r="AC467" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD467" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>1216</v>
+      </c>
+      <c r="AD467" s="2"/>
       <c r="AE467" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AF467" t="s" s="2">
-        <v>74</v>
+        <v>1217</v>
       </c>
       <c r="AG467" t="s" s="2">
-        <v>427</v>
+        <v>1156</v>
       </c>
       <c r="AH467" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI467" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ467" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK467" t="s" s="2">
-        <v>128</v>
+        <v>91</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="s" s="2">
-        <v>1136</v>
+        <v>938</v>
       </c>
       <c r="B468" t="s" s="2">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="C468" t="s" s="2">
-        <v>1180</v>
-      </c>
-      <c r="D468" s="2"/>
+        <v>1186</v>
+      </c>
+      <c r="D468" t="s" s="2">
+        <v>1219</v>
+      </c>
       <c r="E468" t="s" s="2">
         <v>74</v>
       </c>
@@ -56609,10 +56678,10 @@
         <v>329</v>
       </c>
       <c r="M468" t="s" s="2">
-        <v>421</v>
+        <v>1158</v>
       </c>
       <c r="N468" t="s" s="2">
-        <v>422</v>
+        <v>1159</v>
       </c>
       <c r="O468" s="2"/>
       <c r="P468" s="2"/>
@@ -56663,7 +56732,7 @@
         <v>74</v>
       </c>
       <c r="AG468" t="s" s="2">
-        <v>423</v>
+        <v>1156</v>
       </c>
       <c r="AH468" t="s" s="2">
         <v>72</v>
@@ -56675,32 +56744,34 @@
         <v>74</v>
       </c>
       <c r="AK468" t="s" s="2">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="s" s="2">
-        <v>1136</v>
+        <v>938</v>
       </c>
       <c r="B469" t="s" s="2">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="C469" t="s" s="2">
-        <v>1182</v>
-      </c>
-      <c r="D469" s="2"/>
+        <v>1150</v>
+      </c>
+      <c r="D469" t="s" s="2">
+        <v>1388</v>
+      </c>
       <c r="E469" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="F469" s="2"/>
       <c r="G469" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H469" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I469" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="J469" t="s" s="2">
         <v>74</v>
@@ -56712,14 +56783,12 @@
         <v>122</v>
       </c>
       <c r="M469" t="s" s="2">
-        <v>425</v>
+        <v>1389</v>
       </c>
       <c r="N469" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O469" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>1389</v>
+      </c>
+      <c r="O469" s="2"/>
       <c r="P469" s="2"/>
       <c r="Q469" t="s" s="2">
         <v>74</v>
@@ -56756,16 +56825,16 @@
         <v>74</v>
       </c>
       <c r="AC469" t="s" s="2">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="AD469" t="s" s="2">
-        <v>1151</v>
+        <v>74</v>
       </c>
       <c r="AE469" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AF469" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="AG469" t="s" s="2">
         <v>427</v>
@@ -56785,13 +56854,13 @@
     </row>
     <row r="470">
       <c r="A470" t="s" s="2">
-        <v>1136</v>
+        <v>938</v>
       </c>
       <c r="B470" t="s" s="2">
-        <v>1387</v>
+        <v>1390</v>
       </c>
       <c r="C470" t="s" s="2">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="D470" s="2"/>
       <c r="E470" t="s" s="2">
@@ -56799,7 +56868,7 @@
       </c>
       <c r="F470" s="2"/>
       <c r="G470" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H470" t="s" s="2">
         <v>79</v>
@@ -56814,24 +56883,22 @@
         <v>74</v>
       </c>
       <c r="L470" t="s" s="2">
-        <v>93</v>
+        <v>329</v>
       </c>
       <c r="M470" t="s" s="2">
-        <v>1153</v>
+        <v>421</v>
       </c>
       <c r="N470" t="s" s="2">
-        <v>1154</v>
-      </c>
-      <c r="O470" t="s" s="2">
-        <v>1155</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="O470" s="2"/>
       <c r="P470" s="2"/>
       <c r="Q470" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R470" s="2"/>
       <c r="S470" t="s" s="2">
-        <v>1383</v>
+        <v>74</v>
       </c>
       <c r="T470" t="s" s="2">
         <v>74</v>
@@ -56873,10 +56940,10 @@
         <v>74</v>
       </c>
       <c r="AG470" t="s" s="2">
-        <v>1152</v>
+        <v>423</v>
       </c>
       <c r="AH470" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AI470" t="s" s="2">
         <v>79</v>
@@ -56890,24 +56957,24 @@
     </row>
     <row r="471">
       <c r="A471" t="s" s="2">
-        <v>1136</v>
+        <v>938</v>
       </c>
       <c r="B471" t="s" s="2">
-        <v>1388</v>
+        <v>1391</v>
       </c>
       <c r="C471" t="s" s="2">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="D471" s="2"/>
       <c r="E471" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="F471" s="2"/>
       <c r="G471" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H471" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I471" t="s" s="2">
         <v>74</v>
@@ -56919,15 +56986,17 @@
         <v>74</v>
       </c>
       <c r="L471" t="s" s="2">
-        <v>198</v>
+        <v>122</v>
       </c>
       <c r="M471" t="s" s="2">
-        <v>1158</v>
+        <v>425</v>
       </c>
       <c r="N471" t="s" s="2">
-        <v>1159</v>
-      </c>
-      <c r="O471" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="O471" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P471" s="2"/>
       <c r="Q471" t="s" s="2">
         <v>74</v>
@@ -56952,54 +57021,54 @@
         <v>74</v>
       </c>
       <c r="Y471" t="s" s="2">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="Z471" t="s" s="2">
-        <v>1196</v>
+        <v>74</v>
       </c>
       <c r="AA471" t="s" s="2">
-        <v>1197</v>
+        <v>74</v>
       </c>
       <c r="AB471" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AC471" t="s" s="2">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="AD471" t="s" s="2">
-        <v>74</v>
+        <v>1151</v>
       </c>
       <c r="AE471" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AF471" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="AG471" t="s" s="2">
-        <v>1156</v>
+        <v>427</v>
       </c>
       <c r="AH471" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI471" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ471" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK471" t="s" s="2">
-        <v>91</v>
+        <v>128</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="s" s="2">
-        <v>1136</v>
+        <v>938</v>
       </c>
       <c r="B472" t="s" s="2">
-        <v>1152</v>
+        <v>1392</v>
       </c>
       <c r="C472" t="s" s="2">
-        <v>1152</v>
+        <v>1184</v>
       </c>
       <c r="D472" s="2"/>
       <c r="E472" t="s" s="2">
@@ -57007,7 +57076,7 @@
       </c>
       <c r="F472" s="2"/>
       <c r="G472" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H472" t="s" s="2">
         <v>79</v>
@@ -57039,7 +57108,7 @@
       </c>
       <c r="R472" s="2"/>
       <c r="S472" t="s" s="2">
-        <v>1372</v>
+        <v>1388</v>
       </c>
       <c r="T472" t="s" s="2">
         <v>74</v>
@@ -57098,13 +57167,13 @@
     </row>
     <row r="473">
       <c r="A473" t="s" s="2">
-        <v>1136</v>
+        <v>938</v>
       </c>
       <c r="B473" t="s" s="2">
-        <v>1156</v>
+        <v>1393</v>
       </c>
       <c r="C473" t="s" s="2">
-        <v>1156</v>
+        <v>1186</v>
       </c>
       <c r="D473" s="2"/>
       <c r="E473" t="s" s="2">
@@ -57115,7 +57184,7 @@
         <v>72</v>
       </c>
       <c r="H473" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I473" t="s" s="2">
         <v>74</v>
@@ -57127,7 +57196,7 @@
         <v>74</v>
       </c>
       <c r="L473" t="s" s="2">
-        <v>1106</v>
+        <v>329</v>
       </c>
       <c r="M473" t="s" s="2">
         <v>1158</v>
@@ -57172,16 +57241,14 @@
         <v>74</v>
       </c>
       <c r="AC473" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD473" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>1216</v>
+      </c>
+      <c r="AD473" s="2"/>
       <c r="AE473" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AF473" t="s" s="2">
-        <v>74</v>
+        <v>1217</v>
       </c>
       <c r="AG473" t="s" s="2">
         <v>1156</v>
@@ -57201,15 +57268,17 @@
     </row>
     <row r="474">
       <c r="A474" t="s" s="2">
-        <v>1389</v>
+        <v>938</v>
       </c>
       <c r="B474" t="s" s="2">
-        <v>123</v>
+        <v>1394</v>
       </c>
       <c r="C474" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="D474" s="2"/>
+        <v>1186</v>
+      </c>
+      <c r="D474" t="s" s="2">
+        <v>1219</v>
+      </c>
       <c r="E474" t="s" s="2">
         <v>74</v>
       </c>
@@ -57221,7 +57290,7 @@
         <v>79</v>
       </c>
       <c r="I474" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J474" t="s" s="2">
         <v>74</v>
@@ -57230,13 +57299,13 @@
         <v>74</v>
       </c>
       <c r="L474" t="s" s="2">
-        <v>75</v>
+        <v>329</v>
       </c>
       <c r="M474" t="s" s="2">
-        <v>1389</v>
+        <v>1158</v>
       </c>
       <c r="N474" t="s" s="2">
-        <v>1391</v>
+        <v>1159</v>
       </c>
       <c r="O474" s="2"/>
       <c r="P474" s="2"/>
@@ -57287,30 +57356,30 @@
         <v>74</v>
       </c>
       <c r="AG474" t="s" s="2">
-        <v>123</v>
+        <v>1156</v>
       </c>
       <c r="AH474" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI474" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ474" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AK474" t="s" s="2">
-        <v>128</v>
+        <v>91</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="s" s="2">
-        <v>1389</v>
+        <v>938</v>
       </c>
       <c r="B475" t="s" s="2">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="C475" t="s" s="2">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="D475" s="2"/>
       <c r="E475" t="s" s="2">
@@ -57318,7 +57387,7 @@
       </c>
       <c r="F475" s="2"/>
       <c r="G475" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H475" t="s" s="2">
         <v>79</v>
@@ -57333,22 +57402,24 @@
         <v>74</v>
       </c>
       <c r="L475" t="s" s="2">
-        <v>329</v>
+        <v>93</v>
       </c>
       <c r="M475" t="s" s="2">
-        <v>421</v>
+        <v>1153</v>
       </c>
       <c r="N475" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="O475" s="2"/>
+        <v>1154</v>
+      </c>
+      <c r="O475" t="s" s="2">
+        <v>1155</v>
+      </c>
       <c r="P475" s="2"/>
       <c r="Q475" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R475" s="2"/>
       <c r="S475" t="s" s="2">
-        <v>74</v>
+        <v>1352</v>
       </c>
       <c r="T475" t="s" s="2">
         <v>74</v>
@@ -57390,10 +57461,10 @@
         <v>74</v>
       </c>
       <c r="AG475" t="s" s="2">
-        <v>423</v>
+        <v>1152</v>
       </c>
       <c r="AH475" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AI475" t="s" s="2">
         <v>79</v>
@@ -57407,13 +57478,13 @@
     </row>
     <row r="476">
       <c r="A476" t="s" s="2">
-        <v>1389</v>
+        <v>938</v>
       </c>
       <c r="B476" t="s" s="2">
-        <v>1150</v>
+        <v>1156</v>
       </c>
       <c r="C476" t="s" s="2">
-        <v>1150</v>
+        <v>1156</v>
       </c>
       <c r="D476" s="2"/>
       <c r="E476" t="s" s="2">
@@ -57424,7 +57495,7 @@
         <v>72</v>
       </c>
       <c r="H476" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I476" t="s" s="2">
         <v>74</v>
@@ -57436,13 +57507,13 @@
         <v>74</v>
       </c>
       <c r="L476" t="s" s="2">
-        <v>122</v>
+        <v>1106</v>
       </c>
       <c r="M476" t="s" s="2">
-        <v>123</v>
+        <v>1158</v>
       </c>
       <c r="N476" t="s" s="2">
-        <v>124</v>
+        <v>1159</v>
       </c>
       <c r="O476" s="2"/>
       <c r="P476" s="2"/>
@@ -57481,42 +57552,42 @@
         <v>74</v>
       </c>
       <c r="AC476" t="s" s="2">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="AD476" t="s" s="2">
-        <v>1151</v>
+        <v>74</v>
       </c>
       <c r="AE476" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AF476" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="AG476" t="s" s="2">
-        <v>427</v>
+        <v>1156</v>
       </c>
       <c r="AH476" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI476" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ476" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK476" t="s" s="2">
-        <v>128</v>
+        <v>91</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="s" s="2">
-        <v>1389</v>
+        <v>1136</v>
       </c>
       <c r="B477" t="s" s="2">
-        <v>1152</v>
+        <v>123</v>
       </c>
       <c r="C477" t="s" s="2">
-        <v>1152</v>
+        <v>123</v>
       </c>
       <c r="D477" s="2"/>
       <c r="E477" t="s" s="2">
@@ -57524,13 +57595,13 @@
       </c>
       <c r="F477" s="2"/>
       <c r="G477" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H477" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I477" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="J477" t="s" s="2">
         <v>74</v>
@@ -57539,24 +57610,22 @@
         <v>74</v>
       </c>
       <c r="L477" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="M477" t="s" s="2">
-        <v>1153</v>
+        <v>1397</v>
       </c>
       <c r="N477" t="s" s="2">
-        <v>1154</v>
-      </c>
-      <c r="O477" t="s" s="2">
-        <v>1155</v>
-      </c>
+        <v>1396</v>
+      </c>
+      <c r="O477" s="2"/>
       <c r="P477" s="2"/>
       <c r="Q477" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R477" s="2"/>
       <c r="S477" t="s" s="2">
-        <v>1390</v>
+        <v>74</v>
       </c>
       <c r="T477" t="s" s="2">
         <v>74</v>
@@ -57598,30 +57667,30 @@
         <v>74</v>
       </c>
       <c r="AG477" t="s" s="2">
-        <v>1152</v>
+        <v>123</v>
       </c>
       <c r="AH477" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AI477" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ477" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="AK477" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="s" s="2">
-        <v>1389</v>
+        <v>1136</v>
       </c>
       <c r="B478" t="s" s="2">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="C478" t="s" s="2">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="D478" s="2"/>
       <c r="E478" t="s" s="2">
@@ -57644,13 +57713,13 @@
         <v>74</v>
       </c>
       <c r="L478" t="s" s="2">
-        <v>1166</v>
+        <v>329</v>
       </c>
       <c r="M478" t="s" s="2">
-        <v>1158</v>
+        <v>421</v>
       </c>
       <c r="N478" t="s" s="2">
-        <v>1159</v>
+        <v>422</v>
       </c>
       <c r="O478" s="2"/>
       <c r="P478" s="2"/>
@@ -57677,42 +57746,1914 @@
         <v>74</v>
       </c>
       <c r="Y478" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z478" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA478" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB478" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC478" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD478" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE478" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF478" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG478" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AH478" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI478" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ478" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK478" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="s" s="2">
+        <v>1136</v>
+      </c>
+      <c r="B479" t="s" s="2">
+        <v>1150</v>
+      </c>
+      <c r="C479" t="s" s="2">
+        <v>1150</v>
+      </c>
+      <c r="D479" s="2"/>
+      <c r="E479" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="F479" s="2"/>
+      <c r="G479" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H479" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I479" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J479" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K479" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L479" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M479" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="N479" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="O479" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="P479" s="2"/>
+      <c r="Q479" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R479" s="2"/>
+      <c r="S479" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T479" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U479" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V479" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W479" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X479" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y479" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z479" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA479" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB479" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC479" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AD479" t="s" s="2">
+        <v>1151</v>
+      </c>
+      <c r="AE479" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF479" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AG479" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AH479" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI479" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ479" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK479" t="s" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="s" s="2">
+        <v>1136</v>
+      </c>
+      <c r="B480" t="s" s="2">
+        <v>1398</v>
+      </c>
+      <c r="C480" t="s" s="2">
+        <v>1150</v>
+      </c>
+      <c r="D480" t="s" s="2">
+        <v>1399</v>
+      </c>
+      <c r="E480" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F480" s="2"/>
+      <c r="G480" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H480" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I480" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J480" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K480" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L480" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M480" t="s" s="2">
+        <v>1400</v>
+      </c>
+      <c r="N480" t="s" s="2">
+        <v>1400</v>
+      </c>
+      <c r="O480" s="2"/>
+      <c r="P480" s="2"/>
+      <c r="Q480" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R480" s="2"/>
+      <c r="S480" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T480" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U480" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V480" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W480" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X480" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y480" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z480" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA480" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB480" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC480" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD480" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE480" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF480" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG480" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AH480" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI480" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ480" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK480" t="s" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="s" s="2">
+        <v>1136</v>
+      </c>
+      <c r="B481" t="s" s="2">
+        <v>1401</v>
+      </c>
+      <c r="C481" t="s" s="2">
+        <v>1180</v>
+      </c>
+      <c r="D481" s="2"/>
+      <c r="E481" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F481" s="2"/>
+      <c r="G481" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H481" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I481" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J481" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K481" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L481" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M481" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="N481" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="O481" s="2"/>
+      <c r="P481" s="2"/>
+      <c r="Q481" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R481" s="2"/>
+      <c r="S481" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T481" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U481" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V481" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W481" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X481" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y481" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z481" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA481" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB481" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC481" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD481" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE481" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF481" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG481" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AH481" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI481" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ481" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK481" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="s" s="2">
+        <v>1136</v>
+      </c>
+      <c r="B482" t="s" s="2">
+        <v>1402</v>
+      </c>
+      <c r="C482" t="s" s="2">
+        <v>1182</v>
+      </c>
+      <c r="D482" s="2"/>
+      <c r="E482" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="F482" s="2"/>
+      <c r="G482" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H482" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I482" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J482" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K482" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L482" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M482" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="N482" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="O482" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="P482" s="2"/>
+      <c r="Q482" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R482" s="2"/>
+      <c r="S482" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T482" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U482" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V482" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W482" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X482" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y482" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z482" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA482" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB482" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC482" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AD482" t="s" s="2">
+        <v>1151</v>
+      </c>
+      <c r="AE482" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF482" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AG482" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AH482" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI482" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ482" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK482" t="s" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="s" s="2">
+        <v>1136</v>
+      </c>
+      <c r="B483" t="s" s="2">
+        <v>1403</v>
+      </c>
+      <c r="C483" t="s" s="2">
+        <v>1184</v>
+      </c>
+      <c r="D483" s="2"/>
+      <c r="E483" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F483" s="2"/>
+      <c r="G483" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H483" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I483" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J483" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K483" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L483" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="M483" t="s" s="2">
+        <v>1153</v>
+      </c>
+      <c r="N483" t="s" s="2">
+        <v>1154</v>
+      </c>
+      <c r="O483" t="s" s="2">
+        <v>1155</v>
+      </c>
+      <c r="P483" s="2"/>
+      <c r="Q483" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R483" s="2"/>
+      <c r="S483" t="s" s="2">
+        <v>1399</v>
+      </c>
+      <c r="T483" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U483" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V483" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W483" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X483" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y483" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z483" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA483" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB483" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC483" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD483" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE483" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF483" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG483" t="s" s="2">
+        <v>1152</v>
+      </c>
+      <c r="AH483" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI483" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ483" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK483" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="s" s="2">
+        <v>1136</v>
+      </c>
+      <c r="B484" t="s" s="2">
+        <v>1404</v>
+      </c>
+      <c r="C484" t="s" s="2">
+        <v>1186</v>
+      </c>
+      <c r="D484" s="2"/>
+      <c r="E484" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F484" s="2"/>
+      <c r="G484" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H484" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I484" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J484" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K484" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L484" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M484" t="s" s="2">
+        <v>1158</v>
+      </c>
+      <c r="N484" t="s" s="2">
+        <v>1159</v>
+      </c>
+      <c r="O484" s="2"/>
+      <c r="P484" s="2"/>
+      <c r="Q484" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R484" s="2"/>
+      <c r="S484" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T484" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U484" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V484" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W484" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X484" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y484" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z484" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA484" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB484" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC484" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD484" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE484" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF484" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG484" t="s" s="2">
+        <v>1156</v>
+      </c>
+      <c r="AH484" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI484" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ484" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK484" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="s" s="2">
+        <v>1136</v>
+      </c>
+      <c r="B485" t="s" s="2">
+        <v>1405</v>
+      </c>
+      <c r="C485" t="s" s="2">
+        <v>1150</v>
+      </c>
+      <c r="D485" t="s" s="2">
+        <v>1406</v>
+      </c>
+      <c r="E485" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F485" s="2"/>
+      <c r="G485" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H485" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I485" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J485" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K485" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L485" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M485" t="s" s="2">
+        <v>1407</v>
+      </c>
+      <c r="N485" t="s" s="2">
+        <v>1407</v>
+      </c>
+      <c r="O485" s="2"/>
+      <c r="P485" s="2"/>
+      <c r="Q485" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R485" s="2"/>
+      <c r="S485" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T485" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U485" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V485" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W485" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X485" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y485" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z485" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA485" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB485" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC485" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD485" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE485" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF485" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG485" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AH485" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI485" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ485" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK485" t="s" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="s" s="2">
+        <v>1136</v>
+      </c>
+      <c r="B486" t="s" s="2">
+        <v>1408</v>
+      </c>
+      <c r="C486" t="s" s="2">
+        <v>1180</v>
+      </c>
+      <c r="D486" s="2"/>
+      <c r="E486" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F486" s="2"/>
+      <c r="G486" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H486" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I486" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J486" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K486" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L486" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M486" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="N486" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="O486" s="2"/>
+      <c r="P486" s="2"/>
+      <c r="Q486" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R486" s="2"/>
+      <c r="S486" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T486" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U486" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V486" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W486" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X486" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y486" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z486" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA486" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB486" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC486" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD486" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE486" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF486" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG486" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AH486" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI486" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ486" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK486" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="s" s="2">
+        <v>1136</v>
+      </c>
+      <c r="B487" t="s" s="2">
+        <v>1409</v>
+      </c>
+      <c r="C487" t="s" s="2">
+        <v>1182</v>
+      </c>
+      <c r="D487" s="2"/>
+      <c r="E487" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="F487" s="2"/>
+      <c r="G487" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H487" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I487" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J487" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K487" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L487" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M487" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="N487" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="O487" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="P487" s="2"/>
+      <c r="Q487" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R487" s="2"/>
+      <c r="S487" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T487" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U487" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V487" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W487" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X487" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y487" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z487" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA487" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB487" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC487" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AD487" t="s" s="2">
+        <v>1151</v>
+      </c>
+      <c r="AE487" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF487" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AG487" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AH487" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI487" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ487" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK487" t="s" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="s" s="2">
+        <v>1136</v>
+      </c>
+      <c r="B488" t="s" s="2">
+        <v>1410</v>
+      </c>
+      <c r="C488" t="s" s="2">
+        <v>1184</v>
+      </c>
+      <c r="D488" s="2"/>
+      <c r="E488" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F488" s="2"/>
+      <c r="G488" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H488" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I488" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J488" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K488" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L488" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="M488" t="s" s="2">
+        <v>1153</v>
+      </c>
+      <c r="N488" t="s" s="2">
+        <v>1154</v>
+      </c>
+      <c r="O488" t="s" s="2">
+        <v>1155</v>
+      </c>
+      <c r="P488" s="2"/>
+      <c r="Q488" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R488" s="2"/>
+      <c r="S488" t="s" s="2">
+        <v>1406</v>
+      </c>
+      <c r="T488" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U488" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V488" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W488" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X488" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y488" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z488" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA488" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB488" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC488" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD488" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE488" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF488" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG488" t="s" s="2">
+        <v>1152</v>
+      </c>
+      <c r="AH488" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI488" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ488" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK488" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="s" s="2">
+        <v>1136</v>
+      </c>
+      <c r="B489" t="s" s="2">
+        <v>1411</v>
+      </c>
+      <c r="C489" t="s" s="2">
+        <v>1186</v>
+      </c>
+      <c r="D489" s="2"/>
+      <c r="E489" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F489" s="2"/>
+      <c r="G489" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H489" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I489" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J489" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K489" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L489" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M489" t="s" s="2">
+        <v>1158</v>
+      </c>
+      <c r="N489" t="s" s="2">
+        <v>1159</v>
+      </c>
+      <c r="O489" s="2"/>
+      <c r="P489" s="2"/>
+      <c r="Q489" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R489" s="2"/>
+      <c r="S489" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T489" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U489" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V489" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W489" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X489" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y489" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="Z478" t="s" s="2">
-        <v>1392</v>
-      </c>
-      <c r="AA478" t="s" s="2">
-        <v>1393</v>
-      </c>
-      <c r="AB478" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC478" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD478" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE478" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF478" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG478" t="s" s="2">
+      <c r="Z489" t="s" s="2">
+        <v>1196</v>
+      </c>
+      <c r="AA489" t="s" s="2">
+        <v>1197</v>
+      </c>
+      <c r="AB489" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC489" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD489" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE489" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF489" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG489" t="s" s="2">
         <v>1156</v>
       </c>
-      <c r="AH478" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI478" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ478" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK478" t="s" s="2">
+      <c r="AH489" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI489" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ489" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK489" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="s" s="2">
+        <v>1136</v>
+      </c>
+      <c r="B490" t="s" s="2">
+        <v>1152</v>
+      </c>
+      <c r="C490" t="s" s="2">
+        <v>1152</v>
+      </c>
+      <c r="D490" s="2"/>
+      <c r="E490" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F490" s="2"/>
+      <c r="G490" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H490" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I490" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J490" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K490" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L490" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="M490" t="s" s="2">
+        <v>1153</v>
+      </c>
+      <c r="N490" t="s" s="2">
+        <v>1154</v>
+      </c>
+      <c r="O490" t="s" s="2">
+        <v>1155</v>
+      </c>
+      <c r="P490" s="2"/>
+      <c r="Q490" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R490" s="2"/>
+      <c r="S490" t="s" s="2">
+        <v>1395</v>
+      </c>
+      <c r="T490" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U490" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V490" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W490" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X490" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y490" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z490" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA490" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB490" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC490" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD490" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE490" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF490" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG490" t="s" s="2">
+        <v>1152</v>
+      </c>
+      <c r="AH490" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI490" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ490" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK490" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="s" s="2">
+        <v>1136</v>
+      </c>
+      <c r="B491" t="s" s="2">
+        <v>1156</v>
+      </c>
+      <c r="C491" t="s" s="2">
+        <v>1156</v>
+      </c>
+      <c r="D491" s="2"/>
+      <c r="E491" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F491" s="2"/>
+      <c r="G491" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H491" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I491" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J491" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K491" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L491" t="s" s="2">
+        <v>1106</v>
+      </c>
+      <c r="M491" t="s" s="2">
+        <v>1158</v>
+      </c>
+      <c r="N491" t="s" s="2">
+        <v>1159</v>
+      </c>
+      <c r="O491" s="2"/>
+      <c r="P491" s="2"/>
+      <c r="Q491" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R491" s="2"/>
+      <c r="S491" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T491" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U491" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V491" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W491" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X491" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y491" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z491" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA491" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB491" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC491" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD491" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE491" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF491" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG491" t="s" s="2">
+        <v>1156</v>
+      </c>
+      <c r="AH491" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI491" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ491" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK491" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="s" s="2">
+        <v>1412</v>
+      </c>
+      <c r="B492" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="C492" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="D492" s="2"/>
+      <c r="E492" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F492" s="2"/>
+      <c r="G492" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H492" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I492" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J492" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K492" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L492" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="M492" t="s" s="2">
+        <v>1412</v>
+      </c>
+      <c r="N492" t="s" s="2">
+        <v>1414</v>
+      </c>
+      <c r="O492" s="2"/>
+      <c r="P492" s="2"/>
+      <c r="Q492" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R492" s="2"/>
+      <c r="S492" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T492" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U492" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V492" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W492" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X492" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y492" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z492" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA492" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB492" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC492" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD492" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE492" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF492" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG492" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AH492" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI492" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ492" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AK492" t="s" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="s" s="2">
+        <v>1412</v>
+      </c>
+      <c r="B493" t="s" s="2">
+        <v>1149</v>
+      </c>
+      <c r="C493" t="s" s="2">
+        <v>1149</v>
+      </c>
+      <c r="D493" s="2"/>
+      <c r="E493" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F493" s="2"/>
+      <c r="G493" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H493" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I493" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J493" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K493" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L493" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M493" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="N493" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="O493" s="2"/>
+      <c r="P493" s="2"/>
+      <c r="Q493" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R493" s="2"/>
+      <c r="S493" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T493" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U493" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V493" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W493" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X493" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y493" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z493" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA493" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB493" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC493" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD493" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE493" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF493" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG493" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AH493" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI493" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ493" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK493" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="s" s="2">
+        <v>1412</v>
+      </c>
+      <c r="B494" t="s" s="2">
+        <v>1150</v>
+      </c>
+      <c r="C494" t="s" s="2">
+        <v>1150</v>
+      </c>
+      <c r="D494" s="2"/>
+      <c r="E494" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F494" s="2"/>
+      <c r="G494" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H494" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I494" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J494" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K494" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L494" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M494" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N494" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="O494" s="2"/>
+      <c r="P494" s="2"/>
+      <c r="Q494" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R494" s="2"/>
+      <c r="S494" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T494" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U494" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V494" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W494" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X494" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y494" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z494" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA494" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB494" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC494" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AD494" t="s" s="2">
+        <v>1151</v>
+      </c>
+      <c r="AE494" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF494" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AG494" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AH494" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI494" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ494" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK494" t="s" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="s" s="2">
+        <v>1412</v>
+      </c>
+      <c r="B495" t="s" s="2">
+        <v>1152</v>
+      </c>
+      <c r="C495" t="s" s="2">
+        <v>1152</v>
+      </c>
+      <c r="D495" s="2"/>
+      <c r="E495" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F495" s="2"/>
+      <c r="G495" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H495" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I495" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J495" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K495" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L495" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="M495" t="s" s="2">
+        <v>1153</v>
+      </c>
+      <c r="N495" t="s" s="2">
+        <v>1154</v>
+      </c>
+      <c r="O495" t="s" s="2">
+        <v>1155</v>
+      </c>
+      <c r="P495" s="2"/>
+      <c r="Q495" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R495" s="2"/>
+      <c r="S495" t="s" s="2">
+        <v>1413</v>
+      </c>
+      <c r="T495" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U495" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V495" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W495" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X495" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y495" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z495" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA495" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB495" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC495" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD495" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE495" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF495" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG495" t="s" s="2">
+        <v>1152</v>
+      </c>
+      <c r="AH495" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI495" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ495" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK495" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="s" s="2">
+        <v>1412</v>
+      </c>
+      <c r="B496" t="s" s="2">
+        <v>1156</v>
+      </c>
+      <c r="C496" t="s" s="2">
+        <v>1156</v>
+      </c>
+      <c r="D496" s="2"/>
+      <c r="E496" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F496" s="2"/>
+      <c r="G496" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H496" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I496" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J496" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K496" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L496" t="s" s="2">
+        <v>1166</v>
+      </c>
+      <c r="M496" t="s" s="2">
+        <v>1158</v>
+      </c>
+      <c r="N496" t="s" s="2">
+        <v>1159</v>
+      </c>
+      <c r="O496" s="2"/>
+      <c r="P496" s="2"/>
+      <c r="Q496" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R496" s="2"/>
+      <c r="S496" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T496" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U496" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V496" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W496" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X496" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y496" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Z496" t="s" s="2">
+        <v>1415</v>
+      </c>
+      <c r="AA496" t="s" s="2">
+        <v>1416</v>
+      </c>
+      <c r="AB496" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC496" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD496" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE496" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF496" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG496" t="s" s="2">
+        <v>1156</v>
+      </c>
+      <c r="AH496" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI496" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ496" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK496" t="s" s="2">
         <v>91</v>
       </c>
     </row>

--- a/ig/all-profiles.xlsx
+++ b/ig/all-profiles.xlsx
@@ -3653,7 +3653,7 @@
     <t>Sequencing expriment</t>
   </si>
   <si>
-    <t>2023-03-09T16:02:20+00:00</t>
+    <t>2023-03-09T16:05:10+00:00</t>
   </si>
   <si>
     <t>element:Task</t>

--- a/ig/all-profiles.xlsx
+++ b/ig/all-profiles.xlsx
@@ -3653,7 +3653,7 @@
     <t>Sequencing expriment</t>
   </si>
   <si>
-    <t>2023-03-09T16:05:10+00:00</t>
+    <t>2023-03-09T21:27:23+00:00</t>
   </si>
   <si>
     <t>element:Task</t>

--- a/ig/all-profiles.xlsx
+++ b/ig/all-profiles.xlsx
@@ -3653,7 +3653,7 @@
     <t>Sequencing expriment</t>
   </si>
   <si>
-    <t>2023-03-09T21:27:23+00:00</t>
+    <t>2023-03-10T14:30:38+00:00</t>
   </si>
   <si>
     <t>element:Task</t>

--- a/ig/all-profiles.xlsx
+++ b/ig/all-profiles.xlsx
@@ -3653,7 +3653,7 @@
     <t>Sequencing expriment</t>
   </si>
   <si>
-    <t>2023-03-10T14:30:38+00:00</t>
+    <t>2023-03-10T16:37:58+00:00</t>
   </si>
   <si>
     <t>element:Task</t>
@@ -48253,7 +48253,7 @@
       </c>
       <c r="F387" s="2"/>
       <c r="G387" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H387" t="s" s="2">
         <v>79</v>
@@ -48358,7 +48358,7 @@
       </c>
       <c r="F388" s="2"/>
       <c r="G388" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H388" t="s" s="2">
         <v>79</v>
@@ -48461,7 +48461,7 @@
       </c>
       <c r="F389" s="2"/>
       <c r="G389" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H389" t="s" s="2">
         <v>79</v>
@@ -48564,7 +48564,7 @@
       </c>
       <c r="F390" s="2"/>
       <c r="G390" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H390" t="s" s="2">
         <v>79</v>
@@ -51785,7 +51785,7 @@
       </c>
       <c r="F421" s="2"/>
       <c r="G421" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H421" t="s" s="2">
         <v>79</v>
@@ -51890,7 +51890,7 @@
       </c>
       <c r="F422" s="2"/>
       <c r="G422" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H422" t="s" s="2">
         <v>79</v>
@@ -51993,7 +51993,7 @@
       </c>
       <c r="F423" s="2"/>
       <c r="G423" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H423" t="s" s="2">
         <v>79</v>
@@ -52409,7 +52409,7 @@
       </c>
       <c r="F427" s="2"/>
       <c r="G427" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H427" t="s" s="2">
         <v>79</v>
@@ -52514,7 +52514,7 @@
       </c>
       <c r="F428" s="2"/>
       <c r="G428" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H428" t="s" s="2">
         <v>79</v>
@@ -52617,7 +52617,7 @@
       </c>
       <c r="F429" s="2"/>
       <c r="G429" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H429" t="s" s="2">
         <v>79</v>

--- a/ig/all-profiles.xlsx
+++ b/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17051" uniqueCount="1417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17051" uniqueCount="1419">
   <si>
     <t>Property</t>
   </si>
@@ -3653,7 +3653,7 @@
     <t>Sequencing expriment</t>
   </si>
   <si>
-    <t>2023-03-10T16:37:58+00:00</t>
+    <t>2023-03-10T16:43:52+00:00</t>
   </si>
   <si>
     <t>element:Task</t>
@@ -4136,28 +4136,34 @@
     <t>Extension.extension:genomeBuildVersion.value[x]:valueString</t>
   </si>
   <si>
-    <t>Extension.extension:gencodeVersion</t>
+    <t>Extension.extension:vepVersion</t>
+  </si>
+  <si>
+    <t>vepVersion</t>
+  </si>
+  <si>
+    <t>VEP Version</t>
+  </si>
+  <si>
+    <t>Vep Version</t>
+  </si>
+  <si>
+    <t>Extension.extension:vepVersion.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:vepVersion.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:vepVersion.url</t>
   </si>
   <si>
     <t>gencodeVersion</t>
   </si>
   <si>
-    <t>Gencode Version</t>
-  </si>
-  <si>
-    <t>Extension.extension:gencodeVersion.id</t>
-  </si>
-  <si>
-    <t>Extension.extension:gencodeVersion.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension:gencodeVersion.url</t>
-  </si>
-  <si>
-    <t>Extension.extension:gencodeVersion.value[x]</t>
-  </si>
-  <si>
-    <t>Extension.extension:gencodeVersion.value[x]:valueString</t>
+    <t>Extension.extension:vepVersion.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension:vepVersion.value[x]:valueString</t>
   </si>
   <si>
     <t>status-history</t>
@@ -6281,7 +6287,7 @@
         <v>2</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>1332</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="228">
@@ -6289,7 +6295,7 @@
         <v>4</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>1333</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="229">
@@ -6305,7 +6311,7 @@
         <v>8</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>1332</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="231">
@@ -6313,7 +6319,7 @@
         <v>9</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>1334</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="232">
@@ -6359,7 +6365,7 @@
         <v>20</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>1335</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="238">
@@ -6427,7 +6433,7 @@
         <v>1146</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>1336</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="247">
@@ -6451,7 +6457,7 @@
         <v>4</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="250">
@@ -6521,7 +6527,7 @@
         <v>20</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>1338</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="259">
@@ -6589,7 +6595,7 @@
         <v>1146</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>1336</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="268">
@@ -6605,7 +6611,7 @@
         <v>2</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>1356</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="270">
@@ -6613,7 +6619,7 @@
         <v>4</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>1357</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="271">
@@ -6629,7 +6635,7 @@
         <v>8</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>1356</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="273">
@@ -6637,7 +6643,7 @@
         <v>9</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>1358</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="274">
@@ -6683,7 +6689,7 @@
         <v>20</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>1359</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="280">
@@ -6751,7 +6757,7 @@
         <v>1146</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>1360</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="289">
@@ -6767,7 +6773,7 @@
         <v>2</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>1362</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="291">
@@ -6775,7 +6781,7 @@
         <v>4</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>1363</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="292">
@@ -6791,7 +6797,7 @@
         <v>8</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>1362</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="294">
@@ -6799,7 +6805,7 @@
         <v>9</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>1364</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="295">
@@ -6845,7 +6851,7 @@
         <v>20</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>1365</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="301">
@@ -6913,7 +6919,7 @@
         <v>1146</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>1360</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="310">
@@ -6929,7 +6935,7 @@
         <v>2</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>1384</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="312">
@@ -6937,7 +6943,7 @@
         <v>4</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>1385</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="313">
@@ -6953,7 +6959,7 @@
         <v>8</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>1384</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="315">
@@ -6961,7 +6967,7 @@
         <v>9</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>1386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="316">
@@ -7007,7 +7013,7 @@
         <v>20</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>1387</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="322">
@@ -7075,7 +7081,7 @@
         <v>1146</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>1360</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="331">
@@ -7099,7 +7105,7 @@
         <v>4</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>1390</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="334">
@@ -7169,7 +7175,7 @@
         <v>20</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>1391</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="343">
@@ -7237,7 +7243,7 @@
         <v>1146</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>1336</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="352">
@@ -7261,7 +7267,7 @@
         <v>4</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>1393</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="355">
@@ -7277,7 +7283,7 @@
         <v>8</v>
       </c>
       <c r="B356" t="s" s="2">
-        <v>1394</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="357">
@@ -7285,7 +7291,7 @@
         <v>9</v>
       </c>
       <c r="B357" t="s" s="2">
-        <v>1394</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="358">
@@ -7307,7 +7313,7 @@
         <v>14</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>1395</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="361">
@@ -7331,7 +7337,7 @@
         <v>20</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>1396</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="364">
@@ -7399,7 +7405,7 @@
         <v>1146</v>
       </c>
       <c r="B372" t="s" s="2">
-        <v>1397</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="373">
@@ -7407,7 +7413,7 @@
         <v>1146</v>
       </c>
       <c r="B373" t="s" s="2">
-        <v>1336</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="374">
@@ -7423,7 +7429,7 @@
         <v>2</v>
       </c>
       <c r="B375" t="s" s="2">
-        <v>1401</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="376">
@@ -7431,7 +7437,7 @@
         <v>4</v>
       </c>
       <c r="B376" t="s" s="2">
-        <v>1402</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="377">
@@ -7447,7 +7453,7 @@
         <v>8</v>
       </c>
       <c r="B378" t="s" s="2">
-        <v>1401</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="379">
@@ -7455,7 +7461,7 @@
         <v>9</v>
       </c>
       <c r="B379" t="s" s="2">
-        <v>1403</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="380">
@@ -7501,7 +7507,7 @@
         <v>20</v>
       </c>
       <c r="B385" t="s" s="2">
-        <v>1404</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="386">
@@ -7569,7 +7575,7 @@
         <v>1146</v>
       </c>
       <c r="B394" t="s" s="2">
-        <v>1405</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="395">
@@ -7593,7 +7599,7 @@
         <v>4</v>
       </c>
       <c r="B397" t="s" s="2">
-        <v>1408</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="398">
@@ -7609,7 +7615,7 @@
         <v>8</v>
       </c>
       <c r="B399" t="s" s="2">
-        <v>1409</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="400">
@@ -7639,7 +7645,7 @@
         <v>14</v>
       </c>
       <c r="B403" t="s" s="2">
-        <v>1410</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="404">
@@ -7663,7 +7669,7 @@
         <v>20</v>
       </c>
       <c r="B406" t="s" s="2">
-        <v>1411</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="407">
@@ -7731,7 +7737,7 @@
         <v>1146</v>
       </c>
       <c r="B415" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="416">
@@ -7739,7 +7745,7 @@
         <v>1146</v>
       </c>
       <c r="B416" t="s" s="2">
-        <v>1336</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="417">
@@ -7747,7 +7753,7 @@
         <v>1146</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>1413</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="418">
@@ -7755,7 +7761,7 @@
         <v>1146</v>
       </c>
       <c r="B418" t="s" s="2">
-        <v>1414</v>
+        <v>1416</v>
       </c>
     </row>
   </sheetData>
@@ -52119,7 +52125,7 @@
         <v>1326</v>
       </c>
       <c r="N424" t="s" s="2">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="O424" s="2"/>
       <c r="P424" s="2"/>
@@ -52190,7 +52196,7 @@
         <v>953</v>
       </c>
       <c r="B425" t="s" s="2">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="C425" t="s" s="2">
         <v>1171</v>
@@ -52293,7 +52299,7 @@
         <v>953</v>
       </c>
       <c r="B426" t="s" s="2">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="C426" t="s" s="2">
         <v>1173</v>
@@ -52398,7 +52404,7 @@
         <v>953</v>
       </c>
       <c r="B427" t="s" s="2">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="C427" t="s" s="2">
         <v>1175</v>
@@ -52441,7 +52447,7 @@
       </c>
       <c r="R427" s="2"/>
       <c r="S427" t="s" s="2">
-        <v>1325</v>
+        <v>1331</v>
       </c>
       <c r="T427" t="s" s="2">
         <v>74</v>
@@ -52503,7 +52509,7 @@
         <v>953</v>
       </c>
       <c r="B428" t="s" s="2">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="C428" t="s" s="2">
         <v>1177</v>
@@ -52604,7 +52610,7 @@
         <v>953</v>
       </c>
       <c r="B429" t="s" s="2">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="C429" t="s" s="2">
         <v>1177</v>
@@ -52914,7 +52920,7 @@
     </row>
     <row r="432">
       <c r="A432" t="s" s="2">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="B432" t="s" s="2">
         <v>123</v>
@@ -52946,10 +52952,10 @@
         <v>75</v>
       </c>
       <c r="M432" t="s" s="2">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="N432" t="s" s="2">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="O432" s="2"/>
       <c r="P432" s="2"/>
@@ -53017,7 +53023,7 @@
     </row>
     <row r="433">
       <c r="A433" t="s" s="2">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="B433" t="s" s="2">
         <v>1149</v>
@@ -53120,7 +53126,7 @@
     </row>
     <row r="434">
       <c r="A434" t="s" s="2">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="B434" t="s" s="2">
         <v>1150</v>
@@ -53223,7 +53229,7 @@
     </row>
     <row r="435">
       <c r="A435" t="s" s="2">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="B435" t="s" s="2">
         <v>1152</v>
@@ -53269,7 +53275,7 @@
       </c>
       <c r="R435" s="2"/>
       <c r="S435" t="s" s="2">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="T435" t="s" s="2">
         <v>74</v>
@@ -53328,7 +53334,7 @@
     </row>
     <row r="436">
       <c r="A436" t="s" s="2">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="B436" t="s" s="2">
         <v>1156</v>
@@ -53463,10 +53469,10 @@
         <v>75</v>
       </c>
       <c r="M437" t="s" s="2">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="N437" t="s" s="2">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="O437" s="2"/>
       <c r="P437" s="2"/>
@@ -53745,13 +53751,13 @@
         <v>348</v>
       </c>
       <c r="B440" t="s" s="2">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="C440" t="s" s="2">
         <v>1150</v>
       </c>
       <c r="D440" t="s" s="2">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="E440" t="s" s="2">
         <v>74</v>
@@ -53776,10 +53782,10 @@
         <v>122</v>
       </c>
       <c r="M440" t="s" s="2">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="N440" t="s" s="2">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="O440" s="2"/>
       <c r="P440" s="2"/>
@@ -53850,7 +53856,7 @@
         <v>348</v>
       </c>
       <c r="B441" t="s" s="2">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="C441" t="s" s="2">
         <v>1171</v>
@@ -53953,7 +53959,7 @@
         <v>348</v>
       </c>
       <c r="B442" t="s" s="2">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="C442" t="s" s="2">
         <v>1173</v>
@@ -54058,7 +54064,7 @@
         <v>348</v>
       </c>
       <c r="B443" t="s" s="2">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="C443" t="s" s="2">
         <v>1175</v>
@@ -54101,7 +54107,7 @@
       </c>
       <c r="R443" s="2"/>
       <c r="S443" t="s" s="2">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="T443" t="s" s="2">
         <v>74</v>
@@ -54163,7 +54169,7 @@
         <v>348</v>
       </c>
       <c r="B444" t="s" s="2">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="C444" t="s" s="2">
         <v>1177</v>
@@ -54266,13 +54272,13 @@
         <v>348</v>
       </c>
       <c r="B445" t="s" s="2">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="C445" t="s" s="2">
         <v>1150</v>
       </c>
       <c r="D445" t="s" s="2">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="E445" t="s" s="2">
         <v>74</v>
@@ -54297,10 +54303,10 @@
         <v>122</v>
       </c>
       <c r="M445" t="s" s="2">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="N445" t="s" s="2">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="O445" s="2"/>
       <c r="P445" s="2"/>
@@ -54371,7 +54377,7 @@
         <v>348</v>
       </c>
       <c r="B446" t="s" s="2">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="C446" t="s" s="2">
         <v>1171</v>
@@ -54474,7 +54480,7 @@
         <v>348</v>
       </c>
       <c r="B447" t="s" s="2">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="C447" t="s" s="2">
         <v>1173</v>
@@ -54579,7 +54585,7 @@
         <v>348</v>
       </c>
       <c r="B448" t="s" s="2">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="C448" t="s" s="2">
         <v>1175</v>
@@ -54622,7 +54628,7 @@
       </c>
       <c r="R448" s="2"/>
       <c r="S448" t="s" s="2">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="T448" t="s" s="2">
         <v>74</v>
@@ -54684,7 +54690,7 @@
         <v>348</v>
       </c>
       <c r="B449" t="s" s="2">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="C449" t="s" s="2">
         <v>1177</v>
@@ -54746,10 +54752,10 @@
         <v>188</v>
       </c>
       <c r="Z449" t="s" s="2">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="AA449" t="s" s="2">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="AB449" t="s" s="2">
         <v>74</v>
@@ -54830,7 +54836,7 @@
       </c>
       <c r="R450" s="2"/>
       <c r="S450" t="s" s="2">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="T450" t="s" s="2">
         <v>74</v>
@@ -54992,7 +54998,7 @@
     </row>
     <row r="452">
       <c r="A452" t="s" s="2">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="B452" t="s" s="2">
         <v>123</v>
@@ -55024,10 +55030,10 @@
         <v>75</v>
       </c>
       <c r="M452" t="s" s="2">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="N452" t="s" s="2">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="O452" s="2"/>
       <c r="P452" s="2"/>
@@ -55095,7 +55101,7 @@
     </row>
     <row r="453">
       <c r="A453" t="s" s="2">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="B453" t="s" s="2">
         <v>1149</v>
@@ -55198,7 +55204,7 @@
     </row>
     <row r="454">
       <c r="A454" t="s" s="2">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="B454" t="s" s="2">
         <v>1150</v>
@@ -55301,7 +55307,7 @@
     </row>
     <row r="455">
       <c r="A455" t="s" s="2">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="B455" t="s" s="2">
         <v>1152</v>
@@ -55347,7 +55353,7 @@
       </c>
       <c r="R455" s="2"/>
       <c r="S455" t="s" s="2">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="T455" t="s" s="2">
         <v>74</v>
@@ -55406,7 +55412,7 @@
     </row>
     <row r="456">
       <c r="A456" t="s" s="2">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="B456" t="s" s="2">
         <v>1156</v>
@@ -55471,10 +55477,10 @@
         <v>188</v>
       </c>
       <c r="Z456" t="s" s="2">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="AA456" t="s" s="2">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="AB456" t="s" s="2">
         <v>74</v>
@@ -55509,7 +55515,7 @@
     </row>
     <row r="457">
       <c r="A457" t="s" s="2">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="B457" t="s" s="2">
         <v>123</v>
@@ -55541,10 +55547,10 @@
         <v>75</v>
       </c>
       <c r="M457" t="s" s="2">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="N457" t="s" s="2">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="O457" s="2"/>
       <c r="P457" s="2"/>
@@ -55612,7 +55618,7 @@
     </row>
     <row r="458">
       <c r="A458" t="s" s="2">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="B458" t="s" s="2">
         <v>1149</v>
@@ -55715,7 +55721,7 @@
     </row>
     <row r="459">
       <c r="A459" t="s" s="2">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="B459" t="s" s="2">
         <v>1150</v>
@@ -55820,16 +55826,16 @@
     </row>
     <row r="460">
       <c r="A460" t="s" s="2">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="B460" t="s" s="2">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="C460" t="s" s="2">
         <v>1150</v>
       </c>
       <c r="D460" t="s" s="2">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="E460" t="s" s="2">
         <v>74</v>
@@ -55854,10 +55860,10 @@
         <v>122</v>
       </c>
       <c r="M460" t="s" s="2">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="N460" t="s" s="2">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="O460" s="2"/>
       <c r="P460" s="2"/>
@@ -55925,10 +55931,10 @@
     </row>
     <row r="461">
       <c r="A461" t="s" s="2">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="B461" t="s" s="2">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="C461" t="s" s="2">
         <v>1171</v>
@@ -56028,10 +56034,10 @@
     </row>
     <row r="462">
       <c r="A462" t="s" s="2">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="B462" t="s" s="2">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="C462" t="s" s="2">
         <v>1173</v>
@@ -56133,10 +56139,10 @@
     </row>
     <row r="463">
       <c r="A463" t="s" s="2">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="B463" t="s" s="2">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="C463" t="s" s="2">
         <v>1175</v>
@@ -56179,7 +56185,7 @@
       </c>
       <c r="R463" s="2"/>
       <c r="S463" t="s" s="2">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="T463" t="s" s="2">
         <v>74</v>
@@ -56238,10 +56244,10 @@
     </row>
     <row r="464">
       <c r="A464" t="s" s="2">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="B464" t="s" s="2">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="C464" t="s" s="2">
         <v>1177</v>
@@ -56267,7 +56273,7 @@
         <v>74</v>
       </c>
       <c r="L464" t="s" s="2">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="M464" t="s" s="2">
         <v>1158</v>
@@ -56341,16 +56347,16 @@
     </row>
     <row r="465">
       <c r="A465" t="s" s="2">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="B465" t="s" s="2">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="C465" t="s" s="2">
         <v>1150</v>
       </c>
       <c r="D465" t="s" s="2">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="E465" t="s" s="2">
         <v>74</v>
@@ -56375,10 +56381,10 @@
         <v>122</v>
       </c>
       <c r="M465" t="s" s="2">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="N465" t="s" s="2">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="O465" s="2"/>
       <c r="P465" s="2"/>
@@ -56446,10 +56452,10 @@
     </row>
     <row r="466">
       <c r="A466" t="s" s="2">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="B466" t="s" s="2">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="C466" t="s" s="2">
         <v>1171</v>
@@ -56549,10 +56555,10 @@
     </row>
     <row r="467">
       <c r="A467" t="s" s="2">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="B467" t="s" s="2">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="C467" t="s" s="2">
         <v>1173</v>
@@ -56654,10 +56660,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s" s="2">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="B468" t="s" s="2">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="C468" t="s" s="2">
         <v>1175</v>
@@ -56700,7 +56706,7 @@
       </c>
       <c r="R468" s="2"/>
       <c r="S468" t="s" s="2">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="T468" t="s" s="2">
         <v>74</v>
@@ -56759,10 +56765,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s" s="2">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="B469" t="s" s="2">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="C469" t="s" s="2">
         <v>1177</v>
@@ -56824,10 +56830,10 @@
         <v>188</v>
       </c>
       <c r="Z469" t="s" s="2">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="AA469" t="s" s="2">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="AB469" t="s" s="2">
         <v>74</v>
@@ -56862,7 +56868,7 @@
     </row>
     <row r="470">
       <c r="A470" t="s" s="2">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="B470" t="s" s="2">
         <v>1152</v>
@@ -56908,7 +56914,7 @@
       </c>
       <c r="R470" s="2"/>
       <c r="S470" t="s" s="2">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="T470" t="s" s="2">
         <v>74</v>
@@ -56967,7 +56973,7 @@
     </row>
     <row r="471">
       <c r="A471" t="s" s="2">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="B471" t="s" s="2">
         <v>1156</v>
@@ -57070,7 +57076,7 @@
     </row>
     <row r="472">
       <c r="A472" t="s" s="2">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="B472" t="s" s="2">
         <v>123</v>
@@ -57102,10 +57108,10 @@
         <v>75</v>
       </c>
       <c r="M472" t="s" s="2">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="N472" t="s" s="2">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="O472" s="2"/>
       <c r="P472" s="2"/>
@@ -57173,7 +57179,7 @@
     </row>
     <row r="473">
       <c r="A473" t="s" s="2">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="B473" t="s" s="2">
         <v>1149</v>
@@ -57276,7 +57282,7 @@
     </row>
     <row r="474">
       <c r="A474" t="s" s="2">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="B474" t="s" s="2">
         <v>1150</v>
@@ -57379,7 +57385,7 @@
     </row>
     <row r="475">
       <c r="A475" t="s" s="2">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="B475" t="s" s="2">
         <v>1152</v>
@@ -57425,7 +57431,7 @@
       </c>
       <c r="R475" s="2"/>
       <c r="S475" t="s" s="2">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="T475" t="s" s="2">
         <v>74</v>
@@ -57484,7 +57490,7 @@
     </row>
     <row r="476">
       <c r="A476" t="s" s="2">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="B476" t="s" s="2">
         <v>1156</v>
@@ -57549,10 +57555,10 @@
         <v>188</v>
       </c>
       <c r="Z476" t="s" s="2">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="AA476" t="s" s="2">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="AB476" t="s" s="2">
         <v>74</v>
@@ -57622,7 +57628,7 @@
         <v>139</v>
       </c>
       <c r="N477" t="s" s="2">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="O477" s="2"/>
       <c r="P477" s="2"/>
@@ -57942,7 +57948,7 @@
       </c>
       <c r="R480" s="2"/>
       <c r="S480" t="s" s="2">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="T480" t="s" s="2">
         <v>74</v>
@@ -58030,7 +58036,7 @@
         <v>74</v>
       </c>
       <c r="L481" t="s" s="2">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="M481" t="s" s="2">
         <v>1158</v>
@@ -58136,10 +58142,10 @@
         <v>75</v>
       </c>
       <c r="M482" t="s" s="2">
+        <v>1400</v>
+      </c>
+      <c r="N482" t="s" s="2">
         <v>1398</v>
-      </c>
-      <c r="N482" t="s" s="2">
-        <v>1396</v>
       </c>
       <c r="O482" t="s" s="2">
         <v>146</v>
@@ -58461,7 +58467,7 @@
       </c>
       <c r="R485" s="2"/>
       <c r="S485" t="s" s="2">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="T485" t="s" s="2">
         <v>74</v>
@@ -58549,7 +58555,7 @@
         <v>74</v>
       </c>
       <c r="L486" t="s" s="2">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="M486" t="s" s="2">
         <v>1158</v>
@@ -58623,7 +58629,7 @@
     </row>
     <row r="487">
       <c r="A487" t="s" s="2">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="B487" t="s" s="2">
         <v>123</v>
@@ -58655,10 +58661,10 @@
         <v>75</v>
       </c>
       <c r="M487" t="s" s="2">
+        <v>1408</v>
+      </c>
+      <c r="N487" t="s" s="2">
         <v>1406</v>
-      </c>
-      <c r="N487" t="s" s="2">
-        <v>1404</v>
       </c>
       <c r="O487" s="2"/>
       <c r="P487" s="2"/>
@@ -58726,7 +58732,7 @@
     </row>
     <row r="488">
       <c r="A488" t="s" s="2">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="B488" t="s" s="2">
         <v>1149</v>
@@ -58829,7 +58835,7 @@
     </row>
     <row r="489">
       <c r="A489" t="s" s="2">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="B489" t="s" s="2">
         <v>1150</v>
@@ -58932,7 +58938,7 @@
     </row>
     <row r="490">
       <c r="A490" t="s" s="2">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="B490" t="s" s="2">
         <v>1152</v>
@@ -58978,7 +58984,7 @@
       </c>
       <c r="R490" s="2"/>
       <c r="S490" t="s" s="2">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="T490" t="s" s="2">
         <v>74</v>
@@ -59037,7 +59043,7 @@
     </row>
     <row r="491">
       <c r="A491" t="s" s="2">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="B491" t="s" s="2">
         <v>1156</v>
@@ -59066,7 +59072,7 @@
         <v>74</v>
       </c>
       <c r="L491" t="s" s="2">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="M491" t="s" s="2">
         <v>1158</v>
@@ -59175,7 +59181,7 @@
         <v>742</v>
       </c>
       <c r="N492" t="s" s="2">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="O492" t="s" s="2">
         <v>133</v>
@@ -59497,7 +59503,7 @@
       </c>
       <c r="R495" s="2"/>
       <c r="S495" t="s" s="2">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="T495" t="s" s="2">
         <v>74</v>
@@ -59621,7 +59627,7 @@
         <v>203</v>
       </c>
       <c r="Z496" t="s" s="2">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="AA496" t="s" s="2">
         <v>74</v>

--- a/ig/all-profiles.xlsx
+++ b/ig/all-profiles.xlsx
@@ -3653,7 +3653,7 @@
     <t>Sequencing expriment</t>
   </si>
   <si>
-    <t>2023-03-10T16:43:52+00:00</t>
+    <t>2023-03-16T01:14:24+00:00</t>
   </si>
   <si>
     <t>element:Task</t>

--- a/ig/all-profiles.xlsx
+++ b/ig/all-profiles.xlsx
@@ -3653,7 +3653,7 @@
     <t>Sequencing expriment</t>
   </si>
   <si>
-    <t>2023-03-16T01:14:24+00:00</t>
+    <t>2023-03-16T01:23:31+00:00</t>
   </si>
   <si>
     <t>element:Task</t>

--- a/ig/all-profiles.xlsx
+++ b/ig/all-profiles.xlsx
@@ -3655,7 +3655,7 @@
     <t>Workflow Extension</t>
   </si>
   <si>
-    <t>2023-03-21T11:43:18+00:00</t>
+    <t>2023-04-04T14:29:08+00:00</t>
   </si>
   <si>
     <t>element:Task</t>

--- a/ig/all-profiles.xlsx
+++ b/ig/all-profiles.xlsx
@@ -406,7 +406,7 @@
     <t>Family Member</t>
   </si>
   <si>
-    <t>2023-11-09T20:21:55+00:00</t>
+    <t>2023-11-27T16:21:02+00:00</t>
   </si>
   <si>
     <t>Same family patients in a family analysis request (e.g. trio)</t>
@@ -1547,7 +1547,7 @@
     <t>The status of the order.</t>
   </si>
   <si>
-    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](task.html) resource.</t>
   </si>
   <si>
     <t>The status of a service order.</t>
@@ -1870,7 +1870,7 @@
     <t>An explanation or justification for why this service is being requested in coded or textual form.   This is often for billing purposes.  May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
@@ -1892,7 +1892,7 @@
     <t>Indicates another resource that provides a justification for why this service is being requested.   May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>ServiceRequest.insurance</t>
@@ -1941,7 +1941,7 @@
     <t>One or more specimens that the laboratory procedure will use.</t>
   </si>
   <si>
-    <t>Many diagnostic procedures need a specimen, but the request itself is not actually about the specimen. This element is for when the diagnostic is requested on already existing specimens and the request points to the specimen it applies to.    Conversely, if the request is entered first with an unknown specimen, then the [Specimen](http://hl7.org/fhir/R4/specimen.html) resource points to the ServiceRequest.</t>
+    <t>Many diagnostic procedures need a specimen, but the request itself is not actually about the specimen. This element is for when the diagnostic is requested on already existing specimens and the request points to the specimen it applies to.    Conversely, if the request is entered first with an unknown specimen, then the [Specimen](specimen.html) resource points to the ServiceRequest.</t>
   </si>
   <si>
     <t>ServiceRequest.bodySite</t>
@@ -4012,7 +4012,7 @@
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Observation.derivedFrom</t>

--- a/ig/all-profiles.xlsx
+++ b/ig/all-profiles.xlsx
@@ -406,7 +406,7 @@
     <t>Family Member</t>
   </si>
   <si>
-    <t>2023-11-27T16:21:02+00:00</t>
+    <t>2024-03-01T18:52:33+00:00</t>
   </si>
   <si>
     <t>Same family patients in a family analysis request (e.g. trio)</t>

--- a/ig/all-profiles.xlsx
+++ b/ig/all-profiles.xlsx
@@ -406,7 +406,7 @@
     <t>Family Member</t>
   </si>
   <si>
-    <t>2024-03-01T18:52:33+00:00</t>
+    <t>2024-03-19T14:09:21+00:00</t>
   </si>
   <si>
     <t>Same family patients in a family analysis request (e.g. trio)</t>

--- a/ig/all-profiles.xlsx
+++ b/ig/all-profiles.xlsx
@@ -406,7 +406,7 @@
     <t>Family Member</t>
   </si>
   <si>
-    <t>2024-03-19T14:09:21+00:00</t>
+    <t>2024-03-25T15:25:45+00:00</t>
   </si>
   <si>
     <t>Same family patients in a family analysis request (e.g. trio)</t>

--- a/ig/all-profiles.xlsx
+++ b/ig/all-profiles.xlsx
@@ -406,7 +406,7 @@
     <t>Family Member</t>
   </si>
   <si>
-    <t>2024-03-25T15:25:45+00:00</t>
+    <t>2024-03-28T12:52:30+00:00</t>
   </si>
   <si>
     <t>Same family patients in a family analysis request (e.g. trio)</t>

--- a/ig/all-profiles.xlsx
+++ b/ig/all-profiles.xlsx
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Cqgc (mailto:support@ferlab.bio)</t>
   </si>
   <si>
     <t>Description</t>
@@ -406,7 +406,7 @@
     <t>Family Member</t>
   </si>
   <si>
-    <t>2024-03-28T12:52:30+00:00</t>
+    <t>2024-05-09T16:24:25+00:00</t>
   </si>
   <si>
     <t>Same family patients in a family analysis request (e.g. trio)</t>
@@ -55913,7 +55913,7 @@
         <v>81</v>
       </c>
       <c r="AJ460" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AK460" t="s" s="2">
         <v>83</v>
@@ -56129,7 +56129,7 @@
         <v>81</v>
       </c>
       <c r="AJ462" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AK462" t="s" s="2">
         <v>83</v>

--- a/ig/all-profiles.xlsx
+++ b/ig/all-profiles.xlsx
@@ -406,7 +406,7 @@
     <t>Family Member</t>
   </si>
   <si>
-    <t>2024-05-09T16:24:25+00:00</t>
+    <t>2024-05-09T16:30:56+00:00</t>
   </si>
   <si>
     <t>Same family patients in a family analysis request (e.g. trio)</t>

--- a/ig/all-profiles.xlsx
+++ b/ig/all-profiles.xlsx
@@ -406,7 +406,7 @@
     <t>Family Member</t>
   </si>
   <si>
-    <t>2024-05-09T16:30:56+00:00</t>
+    <t>2024-06-10T12:41:12+00:00</t>
   </si>
   <si>
     <t>Same family patients in a family analysis request (e.g. trio)</t>
